--- a/lab5+6/Lab5_template_2018 (1).xlsx
+++ b/lab5+6/Lab5_template_2018 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikmuj\OneDrive\Documents\Programming\dataplotting\lab 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikmuj\OneDrive\Documents\Programming\dataplotting\lab5+6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA19060F-9F2B-4FF3-94FD-9CA06BBE27A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437711-4719-405D-91EA-4E13C53556BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Boxes Tested</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,26 +60,6 @@
   </si>
   <si>
     <t>Frequency (Hz)</t>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> (V)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -90,6 +70,7 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">in </t>
     </r>
@@ -97,6 +78,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (mA)</t>
     </r>
@@ -149,6 +131,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Comment on Phase Measurements.</t>
     </r>
@@ -156,6 +139,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -166,6 +150,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Comments on Model Predictions.</t>
     </r>
@@ -173,6 +158,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -194,12 +180,6 @@
   </si>
   <si>
     <t>Indicate the data used for the model determination (i.e. f0, |Z|, f1, f2, etc.)</t>
-  </si>
-  <si>
-    <t>Indicate phase range and implication thereof.</t>
-  </si>
-  <si>
-    <t>State phase and implication (inductive, resistive or capacitive)</t>
   </si>
   <si>
     <t>Describe how circuit type was arrived upon based on phase characteristics</t>
@@ -226,6 +206,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>rst</t>
     </r>
@@ -234,6 +215,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Lab:</t>
     </r>
@@ -304,6 +286,8 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
       </rPr>
       <t>W</t>
     </r>
@@ -311,6 +295,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>]</t>
     </r>
@@ -328,6 +313,7 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>test</t>
     </r>
@@ -336,6 +322,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> = 0.9994 k</t>
     </r>
@@ -344,6 +331,8 @@
         <b/>
         <sz val="12"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
       </rPr>
       <t>W</t>
     </r>
@@ -358,6 +347,7 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>in</t>
     </r>
@@ -366,6 +356,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>(pp)= 10 V</t>
     </r>
@@ -380,10 +371,83 @@
     <t>Single Port Box. BB-1P-11</t>
   </si>
   <si>
-    <t xml:space="preserve">The only </t>
-  </si>
-  <si>
     <t>Type II</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0-85, at a resonant freq, resitance is at min, reactance at max</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ch2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (V)</t>
+    </r>
+  </si>
+  <si>
+    <t>The resistance given by the DMM indicates a small resistance, characteristic of the resitance of a inductor. Because the resistor in this case is in series with a capacitor, that side would become an open circuit, leaving the DMM to read the inductor resitance.</t>
+  </si>
+  <si>
+    <t>The resistance of the resistor in parallel with the inductor given by product over sums would be cole to the resitance of the inductor. Because the DMM read a value close to the posible resitance of the inductor, this is also a possible circuit type for my box.</t>
   </si>
   <si>
     <r>
@@ -393,12 +457,25 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Both have low equivalent resistances</t>
+      <t xml:space="preserve"> Both have low equivalent resistances and are closed circuits</t>
     </r>
-  </si>
-  <si>
-    <t>Type</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>0, implying resistive impedence</t>
+  </si>
+  <si>
+    <t>85, implying inductive impedence due to positive phase</t>
   </si>
 </sst>
 </file>
@@ -409,7 +486,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -418,14 +495,17 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -435,34 +515,41 @@
     <font>
       <sz val="12"/>
       <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -474,11 +561,14 @@
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -497,6 +587,17 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1651,7 +1752,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1691,20 +1792,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="15"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,7 +1842,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1772,29 +1863,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="12"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="19"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="18"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="14"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
@@ -1880,6 +1955,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1931,128 +2099,71 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="163">
@@ -2539,7 +2650,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2583,7 +2694,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2607,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D53" activeCellId="1" sqref="A53:A72 D53:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2627,101 +2738,101 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="106">
+        <v>34</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="92">
         <v>41958</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
+        <v>35</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
       <c r="D3" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="130"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="147"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
+      <c r="A5" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97"/>
+      <c r="B6" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="170" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="98"/>
+      <c r="B7" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="98"/>
+      <c r="B9" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="146"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="84"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
@@ -2733,251 +2844,253 @@
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
+      <c r="B11" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="161" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="163"/>
+      <c r="A12" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="163"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="163"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="164" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
+      <c r="A17" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="157"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="166"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
+      <c r="A22" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="167" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="82" t="s">
-        <v>49</v>
+      <c r="A31" s="28"/>
+      <c r="B31" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="102"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="105"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="105"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+      <c r="A43" s="91"/>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -3010,714 +3123,714 @@
       <c r="D48"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>42</v>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
     </row>
     <row r="51" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="109" t="s">
-        <v>58</v>
+      <c r="A51" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="95" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="D52" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="E52" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="49" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+      <c r="A53" s="34">
         <v>10</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="36">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C53" s="111">
+      <c r="C53" s="97">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="42">
         <f>B53/(C53*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="45">
         <f>(0)*A53*360</f>
         <v>0</v>
       </c>
-      <c r="F53" s="113"/>
+      <c r="F53" s="99"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
+      <c r="A54" s="35">
         <v>20</v>
       </c>
-      <c r="B54" s="42">
+      <c r="B54" s="37">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C54" s="112">
+      <c r="C54" s="98">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="43">
         <f>B54/(C54*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="46">
         <f>(0)*A54*360</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
+      <c r="A55" s="35">
         <v>40</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="37">
         <v>2.64E-2</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="40">
         <f t="shared" ref="C55:C62" si="0">9.68/0.9994</f>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="43">
         <f t="shared" ref="D55:D72" si="1">B55/(C55*10^-3)</f>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="46">
         <f>(300*10^-6)*A55*360</f>
         <v>4.3199999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
+      <c r="A56" s="35">
         <v>80</v>
       </c>
-      <c r="B56" s="42">
+      <c r="B56" s="37">
         <v>2.64E-2</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="39">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="43">
         <f t="shared" si="1"/>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="46">
         <f>(480*10^-6)*A56*360</f>
         <v>13.823999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
+      <c r="A57" s="35">
         <v>100</v>
       </c>
-      <c r="B57" s="42">
+      <c r="B57" s="37">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="39">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="43">
         <f t="shared" si="1"/>
         <v>2.8082314049586774</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="46">
         <f>(440*10^-6)*A57*360</f>
         <v>15.84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
+      <c r="A58" s="35">
         <v>200</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B58" s="37">
         <v>3.04E-2</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="39">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="43">
         <f t="shared" si="1"/>
         <v>3.1386115702479338</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="46">
         <f>(420*10^-6)*A58*360</f>
         <v>30.24</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
+      <c r="A59" s="35">
         <v>400</v>
       </c>
-      <c r="B59" s="42">
+      <c r="B59" s="37">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="C59" s="112">
+      <c r="C59" s="98">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="43">
         <f t="shared" si="1"/>
         <v>4.212347107438017</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="46">
         <f>(370*10^-6)*A59*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
+      <c r="A60" s="35">
         <v>800</v>
       </c>
-      <c r="B60" s="42">
+      <c r="B60" s="37">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C60" s="98">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="43">
         <f t="shared" si="1"/>
         <v>6.6901983471074375</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="46">
         <f>(240*10^-6)*A60*360</f>
         <v>69.11999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
+      <c r="A61" s="35">
         <v>1000</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="37">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="39">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="43">
         <f t="shared" si="1"/>
         <v>8.176909090909092</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="46">
         <f>(210*10^-6)*A61*360</f>
         <v>75.599999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
+      <c r="A62" s="35">
         <v>2000</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="37">
         <v>0.152</v>
       </c>
-      <c r="C62" s="112">
+      <c r="C62" s="98">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="43">
         <f t="shared" si="1"/>
         <v>15.69305785123967</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="46">
         <f>(118*10^-6)*A62*360</f>
         <v>84.96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
+      <c r="A63" s="35">
         <v>4000</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="37">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C63" s="112">
+      <c r="C63" s="98">
         <f>9.76/0.9994</f>
         <v>9.7658595157094261</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="43">
         <f t="shared" si="1"/>
         <v>30.104877049180324</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="46">
         <f>(57*10^-6)*A63*360</f>
         <v>82.08</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
+      <c r="A64" s="35">
         <v>8000</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B64" s="37">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="39">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="43">
         <f t="shared" si="1"/>
         <v>59.556081632653047</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="46">
         <f>(28.8*10^-6)*A64*360</f>
         <v>82.944000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
+      <c r="A65" s="35">
         <v>10000</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="37">
         <v>0.72</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="39">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="43">
         <f t="shared" si="1"/>
         <v>73.425306122448973</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="46">
         <f>(22.4*10^-6)*A65*360</f>
         <v>80.639999999999986</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="A66" s="35">
         <v>20000</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="37">
         <v>1.4</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="39">
         <f>9.4/0.9994</f>
         <v>9.4056433860316204</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="43">
         <f t="shared" si="1"/>
         <v>148.84680851063828</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="46">
         <f>(10.8*10^-6)*A66*360</f>
         <v>77.760000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
+      <c r="A67" s="35">
         <v>40000</v>
       </c>
-      <c r="B67" s="42">
+      <c r="B67" s="37">
         <v>2.56</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="39">
         <f>9/0.9994</f>
         <v>9.0054032419451673</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="43">
         <f t="shared" si="1"/>
         <v>284.27377777777775</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="46">
         <f>(5.3*10^-6)*A67*360</f>
         <v>76.319999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
+      <c r="A68" s="35">
         <v>80000</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="37">
         <v>3.76</v>
       </c>
-      <c r="C68" s="44">
+      <c r="C68" s="39">
         <f>7.4/0.9994</f>
         <v>7.40444266559936</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="43">
         <f t="shared" si="1"/>
         <v>507.80324324324317</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="46">
         <f>(2.08*10^-6)*A68*360</f>
         <v>59.903999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
+      <c r="A69" s="35">
         <v>100000</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="37">
         <v>4</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="39">
         <f>7/0.9994</f>
         <v>7.0042025215129078</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="43">
         <f t="shared" si="1"/>
         <v>571.08571428571429</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="46">
         <f>(1.48*10^-6)*A69*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
+      <c r="A70" s="35">
         <v>200000</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="37">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="39">
         <f>5.6/0.9994</f>
         <v>5.6033620172103262</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="43">
         <f t="shared" si="1"/>
         <v>828.07428571428557</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="46">
         <f>(480*10^-9)*A70*360</f>
         <v>34.56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="85">
+      <c r="A71" s="71">
         <v>500000</v>
       </c>
-      <c r="B71" s="86">
+      <c r="B71" s="72">
         <v>4.8</v>
       </c>
-      <c r="C71" s="87">
+      <c r="C71" s="73">
         <f>5/0.9994</f>
         <v>5.0030018010806483</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="43">
         <f t="shared" si="1"/>
         <v>959.42400000000009</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="46">
         <f>(56*10^-9)*A71*360</f>
         <v>10.080000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="88">
+      <c r="A72" s="74">
         <v>750000</v>
       </c>
-      <c r="B72" s="89">
+      <c r="B72" s="75">
         <v>4.76</v>
       </c>
-      <c r="C72" s="90">
+      <c r="C72" s="76">
         <f>4.96/0.9994</f>
         <v>4.9629777866720035</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="43">
         <f t="shared" si="1"/>
         <v>959.1016129032256</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="46">
         <f>(12*10^-9)*A72*360</f>
         <v>3.24</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="67"/>
+      <c r="A73" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="157"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="80" t="s">
-        <v>30</v>
+      <c r="A81" s="55"/>
+      <c r="B81" s="66" t="s">
+        <v>29</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="80" t="s">
-        <v>28</v>
+      <c r="A82" s="55"/>
+      <c r="B82" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="80" t="s">
-        <v>29</v>
+      <c r="A83" s="55"/>
+      <c r="B83" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="84" t="s">
-        <v>31</v>
+      <c r="A84" s="55"/>
+      <c r="B84" s="70" t="s">
+        <v>30</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="62"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="64"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="58"/>
       <c r="F98"/>
     </row>
     <row r="99" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" s="54" t="s">
-        <v>42</v>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="67"/>
+      <c r="A100" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="156"/>
+      <c r="C100" s="156"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="157"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="52"/>
+      <c r="C101" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="153"/>
+      <c r="E101" s="154"/>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="136" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="137"/>
-      <c r="E101" s="138"/>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="56" t="s">
+      <c r="B102" s="53"/>
+      <c r="C102" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="127"/>
+      <c r="E102" s="128"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="140"/>
-      <c r="E102" s="141"/>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="143"/>
-      <c r="E103" s="144"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="129"/>
+      <c r="E103" s="130"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="91" t="s">
-        <v>34</v>
+      <c r="A104" s="77" t="s">
+        <v>31</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3742,17 +3855,17 @@
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="67"/>
+      <c r="A107" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="156"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="156"/>
+      <c r="E107" s="157"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3760,9 +3873,9 @@
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="B109" s="80" t="s">
-        <v>27</v>
+      <c r="A109" s="55"/>
+      <c r="B109" s="66" t="s">
+        <v>26</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3770,21 +3883,21 @@
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="62"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="64"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="58"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="67"/>
+      <c r="A111" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="156"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="156"/>
+      <c r="E111" s="157"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3796,8 +3909,8 @@
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="83" t="s">
-        <v>26</v>
+      <c r="A113" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3822,13 +3935,13 @@
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="67"/>
+      <c r="A116" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="61"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3841,8 +3954,8 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="80" t="s">
-        <v>44</v>
+      <c r="B118" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3866,9 +3979,9 @@
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="81" t="s">
-        <v>45</v>
+      <c r="A121" s="55"/>
+      <c r="B121" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3876,26 +3989,26 @@
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="62"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="64"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="58"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="72"/>
+      <c r="A123" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="159"/>
+      <c r="C123" s="159"/>
+      <c r="D123" s="159"/>
+      <c r="E123" s="160"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3904,40 +4017,40 @@
       <c r="F124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="145"/>
-      <c r="B125" s="146"/>
-      <c r="C125" s="146"/>
-      <c r="D125" s="146"/>
-      <c r="E125" s="147"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="101"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="102"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="145"/>
-      <c r="B126" s="146"/>
-      <c r="C126" s="146"/>
-      <c r="D126" s="146"/>
-      <c r="E126" s="147"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="102"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="145"/>
-      <c r="B127" s="146"/>
-      <c r="C127" s="146"/>
-      <c r="D127" s="146"/>
-      <c r="E127" s="147"/>
+      <c r="A127" s="100"/>
+      <c r="B127" s="101"/>
+      <c r="C127" s="101"/>
+      <c r="D127" s="101"/>
+      <c r="E127" s="102"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="145"/>
-      <c r="B128" s="146"/>
-      <c r="C128" s="146"/>
-      <c r="D128" s="146"/>
-      <c r="E128" s="147"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="101"/>
+      <c r="C128" s="101"/>
+      <c r="D128" s="101"/>
+      <c r="E128" s="102"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3946,71 +4059,71 @@
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="148"/>
-      <c r="B130" s="149"/>
-      <c r="C130" s="149"/>
-      <c r="D130" s="149"/>
-      <c r="E130" s="150"/>
+      <c r="A130" s="103"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="104"/>
+      <c r="E130" s="105"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="148"/>
-      <c r="B131" s="149"/>
-      <c r="C131" s="149"/>
-      <c r="D131" s="149"/>
-      <c r="E131" s="150"/>
+      <c r="A131" s="103"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="105"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="148"/>
-      <c r="B132" s="149"/>
-      <c r="C132" s="149"/>
-      <c r="D132" s="149"/>
-      <c r="E132" s="150"/>
+      <c r="A132" s="103"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="104"/>
+      <c r="E132" s="105"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="148"/>
-      <c r="B133" s="149"/>
-      <c r="C133" s="149"/>
-      <c r="D133" s="149"/>
-      <c r="E133" s="150"/>
+      <c r="A133" s="103"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="105"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="151"/>
-      <c r="B134" s="152"/>
-      <c r="C134" s="152"/>
-      <c r="D134" s="152"/>
-      <c r="E134" s="153"/>
+      <c r="A134" s="106"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="107"/>
+      <c r="E134" s="108"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="71"/>
-      <c r="C135" s="71"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="72"/>
+      <c r="A135" s="158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="159"/>
+      <c r="C135" s="159"/>
+      <c r="D135" s="159"/>
+      <c r="E135" s="160"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" s="75"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="75"/>
-      <c r="E136" s="76"/>
+      <c r="A136" s="161" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="162"/>
+      <c r="C136" s="162"/>
+      <c r="D136" s="162"/>
+      <c r="E136" s="163"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="94"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="95"/>
-      <c r="D137" s="95"/>
-      <c r="E137" s="96"/>
+      <c r="A137" s="80"/>
+      <c r="B137" s="81"/>
+      <c r="C137" s="81"/>
+      <c r="D137" s="81"/>
+      <c r="E137" s="82"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4058,8 +4171,8 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="79" t="s">
-        <v>23</v>
+      <c r="B144" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4082,7 +4195,23 @@
     <row r="147" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="244" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="31">
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A125:E128"/>
     <mergeCell ref="A130:E134"/>
     <mergeCell ref="B12:E16"/>
@@ -4094,17 +4223,10 @@
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0.14000000000000001" top="0.4" bottom="0.11" header="0.23333333333333334" footer="0.5"/>

--- a/lab5+6/Lab5_template_2018 (1).xlsx
+++ b/lab5+6/Lab5_template_2018 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikmuj\OneDrive\Documents\Programming\dataplotting\lab5+6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyStuff\MyDocs\Programming Projects\dataplotting\lab5+6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437711-4719-405D-91EA-4E13C53556BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{928FB877-D20A-4766-8496-71946F48442A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Boxes Tested</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,12 +158,6 @@
     </r>
   </si>
   <si>
-    <t>Describe how component values were determined including any curve used fitting to measured data.</t>
-  </si>
-  <si>
-    <t>Show complex impedance equation here.</t>
-  </si>
-  <si>
     <t>Include Legend with Model values</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
   </si>
   <si>
     <t>Indicate the data used for the model determination (i.e. f0, |Z|, f1, f2, etc.)</t>
-  </si>
-  <si>
-    <t>Describe how circuit type was arrived upon based on phase characteristics</t>
   </si>
   <si>
     <t>state topology</t>
@@ -241,12 +226,6 @@
   </si>
   <si>
     <t>Fall 2018</t>
-  </si>
-  <si>
-    <t>Show calculation of resistance  R, Rlser here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Show calculation of inductance and capacitance here.</t>
   </si>
   <si>
     <t xml:space="preserve">    Page 3 of 3                  </t>
@@ -374,21 +353,6 @@
     <t>Type II</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>0-85, at a resonant freq, resitance is at min, reactance at max</t>
   </si>
   <si>
@@ -472,10 +436,41 @@
     </r>
   </si>
   <si>
-    <t>0, implying resistive impedence</t>
+    <t>85, implying inductive impedence due to positive phase</t>
   </si>
   <si>
-    <t>85, implying inductive impedence due to positive phase</t>
+    <t>3, implying resistive impedence</t>
+  </si>
+  <si>
+    <t>Seeing as the phase (degrees) at low frequency is near 90 and the phase at high frequency approaches 0, we can be clear that the circuit is type VII, because the other option, the type II circuit, has a high freqency limit of -90.</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> was determined by taking the impedence of the single box at extremely low frequency, when the phase was at 0. From that, the inductance was found using the formula in the bode plots in lecture notes 6. The break frequency was found using inductance and series resistance. The resistor value can be found with the inductance value at high frequency. From there C was estimated using the 45 degree phase point.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -486,7 +481,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -601,6 +596,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1752,7 +1762,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1768,7 +1778,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,9 +1827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1876,15 +1881,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
@@ -1905,9 +1904,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1955,6 +1951,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1982,15 +2071,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2000,9 +2092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2027,14 +2116,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2042,128 +2140,137 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="163">
@@ -2342,6 +2449,2481 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4541949" cy="583429"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89EC2D4-C151-425E-9860-368CAD9D5D92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="581025" y="21955125"/>
+              <a:ext cx="4541949" cy="583429"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="["/>
+                            <m:endChr m:val="]"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:sSubSup>
+                                      <m:sSubSupPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubSupPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑅</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐿</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                      <m:sup>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑠𝑒𝑟</m:t>
+                                        </m:r>
+                                      </m:sup>
+                                    </m:sSubSup>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑒𝑟</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="["/>
+                            <m:endChr m:val="]"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>(</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:sty m:val="p"/>
+                                      </m:rPr>
+                                      <a:rPr lang="el-GR" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>ω</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>)</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑒𝑟</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑗</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:d>
+                                      <m:dPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:dPr>
+                                      <m:e>
+                                        <m:sSubSup>
+                                          <m:sSubSupPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:sSubSupPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝑅</m:t>
+                                            </m:r>
+                                          </m:e>
+                                          <m:sub>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝐿</m:t>
+                                            </m:r>
+                                          </m:sub>
+                                          <m:sup>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝑠𝑒𝑟</m:t>
+                                            </m:r>
+                                          </m:sup>
+                                        </m:sSubSup>
+                                      </m:e>
+                                    </m:d>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:f>
+                                  <m:fPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:fPr>
+                                  <m:num>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:num>
+                                  <m:den>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝐶</m:t>
+                                    </m:r>
+                                  </m:den>
+                                </m:f>
+                              </m:e>
+                            </m:d>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>+</m:t>
+                                    </m:r>
+                                    <m:sSubSup>
+                                      <m:sSubSupPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubSupPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑅</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐿</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                      <m:sup>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑠𝑒𝑟</m:t>
+                                        </m:r>
+                                      </m:sup>
+                                    </m:sSubSup>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:f>
+                                  <m:fPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:fPr>
+                                  <m:num>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:num>
+                                  <m:den>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐶</m:t>
+                                    </m:r>
+                                  </m:den>
+                                </m:f>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89EC2D4-C151-425E-9860-368CAD9D5D92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="581025" y="21955125"/>
+              <a:ext cx="4541949" cy="583429"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑍=(𝑅[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑅_𝐿^𝑠𝑒𝑟 )^2+(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿)^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+𝑅_𝐿^𝑠𝑒𝑟 [</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅^2+1/〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ω</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿)〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>])/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑅+𝑅_𝐿^𝑠𝑒𝑟 )^2+〖(𝜔𝐿−1/𝜔𝐶)〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑗[(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝑅^2 𝐿−(𝑅_𝐿^𝑠𝑒𝑟 )^2/𝜔𝐶−𝐿/𝐶 (𝜔𝐿−1/𝜔𝐶))/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑅+𝑅_𝐿^𝑠𝑒𝑟 )^2+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(𝜔𝐿−1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜔𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)〗^2 )]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94149</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>2930</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1828834" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6ADFB3-4FC3-4A91-88C2-CC5A258FEEAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="94149" y="23947315"/>
+              <a:ext cx="1828834" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑠𝑒𝑟</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=3</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>Ω</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6ADFB3-4FC3-4A91-88C2-CC5A258FEEAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="94149" y="23947315"/>
+              <a:ext cx="1828834" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_𝐿^𝑠𝑒𝑟=3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Ω</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3262753" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A274099-6A09-4494-BD2B-EFC229E20FB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="99645" y="24131954"/>
+              <a:ext cx="3262753" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑠𝑒𝑟</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0.411+2.08</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>−0.0018</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐿</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> so </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐿</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=1.246</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>mH</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A274099-6A09-4494-BD2B-EFC229E20FB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="99645" y="24131954"/>
+              <a:ext cx="3262753" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅_𝐿^𝑠𝑒𝑟=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.411+2.08(𝐿)−0.0018(𝐿)^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> so </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿=1.246mH</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260838</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1812484" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07583A56-2572-44C4-A38A-914065CD6D5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="260838" y="23772935"/>
+              <a:ext cx="1812484" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑅</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=959</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>Ω</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07583A56-2572-44C4-A38A-914065CD6D5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="260838" y="23772935"/>
+              <a:ext cx="1812484" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅=959</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Ω</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202222</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>172915</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1808187" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D43A6C-0410-4BA9-B4AA-B36E769A6E70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="202222" y="24315127"/>
+              <a:ext cx="1808187" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑓</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=6</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>kHz from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D43A6C-0410-4BA9-B4AA-B36E769A6E70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="202222" y="24315127"/>
+              <a:ext cx="1808187" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓_𝐵=6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>kHz from measured data</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2650,7 +5232,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2694,7 +5276,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2718,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2732,365 +5314,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="86">
+        <v>41958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="92">
-        <v>41958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="147"/>
+      <c r="A4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="A5" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="84"/>
+      <c r="B7" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="84"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="84"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="B11" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="138"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="138"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="138"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="138"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="139"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="139"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="139"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="140"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="8"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="68" t="s">
-        <v>46</v>
+      <c r="A31" s="26"/>
+      <c r="B31" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="20"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
+      <c r="A43" s="85"/>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -3123,887 +5705,881 @@
       <c r="D48"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>39</v>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="157"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="102"/>
     </row>
     <row r="51" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="63" t="s">
+      <c r="A51" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="95" t="s">
-        <v>55</v>
+      <c r="C51" s="59"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="89" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="32">
         <v>10</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="34">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C53" s="97">
+      <c r="C53" s="91">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="39">
         <f>B53/(C53*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="42">
         <f>(0)*A53*360</f>
         <v>0</v>
       </c>
-      <c r="F53" s="99"/>
+      <c r="F53" s="93"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
+      <c r="A54" s="33">
         <v>20</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="35">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="92">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="40">
         <f>B54/(C54*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="43">
         <f>(0)*A54*360</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+      <c r="A55" s="33">
         <v>40</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="35">
         <v>2.64E-2</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="163">
         <f t="shared" ref="C55:C62" si="0">9.68/0.9994</f>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="40">
         <f t="shared" ref="D55:D72" si="1">B55/(C55*10^-3)</f>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="43">
         <f>(300*10^-6)*A55*360</f>
         <v>4.3199999999999994</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="35">
+      <c r="A56" s="33">
         <v>80</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="35">
         <v>2.64E-2</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="40">
         <f t="shared" si="1"/>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="43">
         <f>(480*10^-6)*A56*360</f>
         <v>13.823999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
+      <c r="A57" s="33">
         <v>100</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="35">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="40">
         <f t="shared" si="1"/>
         <v>2.8082314049586774</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="43">
         <f>(440*10^-6)*A57*360</f>
         <v>15.84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
+      <c r="A58" s="33">
         <v>200</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="35">
         <v>3.04E-2</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="37">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="40">
         <f t="shared" si="1"/>
         <v>3.1386115702479338</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="43">
         <f>(420*10^-6)*A58*360</f>
         <v>30.24</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+      <c r="A59" s="33">
         <v>400</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="35">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="92">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="40">
         <f t="shared" si="1"/>
         <v>4.212347107438017</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="43">
         <f>(370*10^-6)*A59*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
+      <c r="A60" s="33">
         <v>800</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="35">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="92">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="40">
         <f t="shared" si="1"/>
         <v>6.6901983471074375</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="43">
         <f>(240*10^-6)*A60*360</f>
         <v>69.11999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
+      <c r="A61" s="33">
         <v>1000</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="35">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="37">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="40">
         <f t="shared" si="1"/>
         <v>8.176909090909092</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="43">
         <f>(210*10^-6)*A61*360</f>
         <v>75.599999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="33">
         <v>2000</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="35">
         <v>0.152</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="92">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="40">
         <f t="shared" si="1"/>
         <v>15.69305785123967</v>
       </c>
-      <c r="E62" s="46">
+      <c r="E62" s="43">
         <f>(118*10^-6)*A62*360</f>
         <v>84.96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="35">
+      <c r="A63" s="33">
         <v>4000</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="35">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C63" s="98">
+      <c r="C63" s="92">
         <f>9.76/0.9994</f>
         <v>9.7658595157094261</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="40">
         <f t="shared" si="1"/>
         <v>30.104877049180324</v>
       </c>
-      <c r="E63" s="46">
+      <c r="E63" s="43">
         <f>(57*10^-6)*A63*360</f>
         <v>82.08</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
+      <c r="A64" s="33">
         <v>8000</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="35">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="37">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="40">
         <f t="shared" si="1"/>
         <v>59.556081632653047</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="43">
         <f>(28.8*10^-6)*A64*360</f>
         <v>82.944000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
+      <c r="A65" s="33">
         <v>10000</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="35">
         <v>0.72</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="37">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D65" s="43">
+      <c r="D65" s="40">
         <f t="shared" si="1"/>
         <v>73.425306122448973</v>
       </c>
-      <c r="E65" s="46">
+      <c r="E65" s="43">
         <f>(22.4*10^-6)*A65*360</f>
         <v>80.639999999999986</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
+      <c r="A66" s="33">
         <v>20000</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="35">
         <v>1.4</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="37">
         <f>9.4/0.9994</f>
         <v>9.4056433860316204</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="40">
         <f t="shared" si="1"/>
         <v>148.84680851063828</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="43">
         <f>(10.8*10^-6)*A66*360</f>
         <v>77.760000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+      <c r="A67" s="33">
         <v>40000</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="35">
         <v>2.56</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="37">
         <f>9/0.9994</f>
         <v>9.0054032419451673</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="40">
         <f t="shared" si="1"/>
         <v>284.27377777777775</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="43">
         <f>(5.3*10^-6)*A67*360</f>
         <v>76.319999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="35">
+      <c r="A68" s="33">
         <v>80000</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="35">
         <v>3.76</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="37">
         <f>7.4/0.9994</f>
         <v>7.40444266559936</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="40">
         <f t="shared" si="1"/>
         <v>507.80324324324317</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="43">
         <f>(2.08*10^-6)*A68*360</f>
         <v>59.903999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
+      <c r="A69" s="33">
         <v>100000</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="35">
         <v>4</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="37">
         <f>7/0.9994</f>
         <v>7.0042025215129078</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="40">
         <f t="shared" si="1"/>
         <v>571.08571428571429</v>
       </c>
-      <c r="E69" s="46">
+      <c r="E69" s="43">
         <f>(1.48*10^-6)*A69*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="35">
+      <c r="A70" s="33">
         <v>200000</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="35">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="37">
         <f>5.6/0.9994</f>
         <v>5.6033620172103262</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="40">
         <f t="shared" si="1"/>
         <v>828.07428571428557</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="43">
         <f>(480*10^-9)*A70*360</f>
         <v>34.56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+      <c r="A71" s="66">
         <v>500000</v>
       </c>
-      <c r="B71" s="72">
+      <c r="B71" s="67">
         <v>4.8</v>
       </c>
-      <c r="C71" s="73">
+      <c r="C71" s="68">
         <f>5/0.9994</f>
         <v>5.0030018010806483</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D71" s="40">
         <f t="shared" si="1"/>
         <v>959.42400000000009</v>
       </c>
-      <c r="E71" s="46">
+      <c r="E71" s="43">
         <f>(56*10^-9)*A71*360</f>
         <v>10.080000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="74">
+      <c r="A72" s="69">
         <v>750000</v>
       </c>
-      <c r="B72" s="75">
+      <c r="B72" s="70">
         <v>4.76</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72" s="71">
         <f>4.96/0.9994</f>
         <v>4.9629777866720035</v>
       </c>
-      <c r="D72" s="43">
+      <c r="D72" s="40">
         <f t="shared" si="1"/>
         <v>959.1016129032256</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="43">
         <f>(12*10^-9)*A72*360</f>
         <v>3.24</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="155" t="s">
+      <c r="A73" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="156"/>
-      <c r="C73" s="156"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="157"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="102"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="66" t="s">
-        <v>29</v>
+      <c r="A81" s="52"/>
+      <c r="B81" s="63" t="s">
+        <v>27</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="66" t="s">
-        <v>27</v>
+      <c r="A82" s="52"/>
+      <c r="B82" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="66" t="s">
-        <v>28</v>
+      <c r="A83" s="52"/>
+      <c r="B83" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="70" t="s">
-        <v>30</v>
+      <c r="A84" s="52"/>
+      <c r="B84" s="65" t="s">
+        <v>28</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="58"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="55"/>
       <c r="F98"/>
     </row>
     <row r="99" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>39</v>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="155" t="s">
+      <c r="A100" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="156"/>
-      <c r="C100" s="156"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="157"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="102"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="153"/>
-      <c r="E101" s="154"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="152"/>
+      <c r="E101" s="153"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="D102" s="127"/>
-      <c r="E102" s="128"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="155"/>
+      <c r="E102" s="156"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="54"/>
-      <c r="C103" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="129"/>
-      <c r="E103" s="130"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="157" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="158"/>
+      <c r="E103" s="159"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="25"/>
+      <c r="A104" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
+      <c r="D104" s="175"/>
+      <c r="E104" s="176"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="20"/>
+      <c r="A105" s="177"/>
+      <c r="B105" s="178"/>
+      <c r="C105" s="178"/>
+      <c r="D105" s="178"/>
+      <c r="E105" s="179"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="20"/>
+      <c r="A106" s="180"/>
+      <c r="B106" s="181"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="182"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="156"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="157"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="102"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="7"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="166"/>
+      <c r="C108" s="166"/>
+      <c r="D108" s="166"/>
+      <c r="E108" s="167"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
+      <c r="A109" s="168"/>
+      <c r="B109" s="169"/>
+      <c r="C109" s="169"/>
+      <c r="D109" s="169"/>
+      <c r="E109" s="170"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="56"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="58"/>
+      <c r="A110" s="171"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="172"/>
+      <c r="D110" s="172"/>
+      <c r="E110" s="173"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="155" t="s">
+      <c r="A111" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="156"/>
-      <c r="C111" s="156"/>
-      <c r="D111" s="156"/>
-      <c r="E111" s="157"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="102"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="20"/>
+      <c r="A112" s="183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="184"/>
+      <c r="C112" s="184"/>
+      <c r="D112" s="184"/>
+      <c r="E112" s="185"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="20"/>
+      <c r="A113" s="186"/>
+      <c r="B113" s="187"/>
+      <c r="C113" s="187"/>
+      <c r="D113" s="187"/>
+      <c r="E113" s="188"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="20"/>
+      <c r="A114" s="186"/>
+      <c r="B114" s="187"/>
+      <c r="C114" s="187"/>
+      <c r="D114" s="187"/>
+      <c r="E114" s="188"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="21"/>
+      <c r="A115" s="189"/>
+      <c r="B115" s="190"/>
+      <c r="C115" s="190"/>
+      <c r="D115" s="190"/>
+      <c r="E115" s="191"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="59" t="s">
+      <c r="A116" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="61"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="58"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="20"/>
+      <c r="A117" s="193"/>
+      <c r="B117" s="194"/>
+      <c r="C117" s="194"/>
+      <c r="D117" s="194"/>
+      <c r="E117" s="195"/>
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="20"/>
+      <c r="A118" s="192"/>
+      <c r="B118" s="196"/>
+      <c r="C118" s="196"/>
+      <c r="D118" s="196"/>
+      <c r="E118" s="197"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="20"/>
+      <c r="A119" s="192"/>
+      <c r="B119" s="196"/>
+      <c r="C119" s="196"/>
+      <c r="D119" s="196"/>
+      <c r="E119" s="197"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="20"/>
+      <c r="A120" s="192"/>
+      <c r="B120" s="196"/>
+      <c r="C120" s="196"/>
+      <c r="D120" s="196"/>
+      <c r="E120" s="197"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="7"/>
+      <c r="A121" s="192"/>
+      <c r="B121" s="196"/>
+      <c r="C121" s="196"/>
+      <c r="D121" s="196"/>
+      <c r="E121" s="197"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="56"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="58"/>
+      <c r="A122" s="198"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="199"/>
+      <c r="D122" s="199"/>
+      <c r="E122" s="200"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="158" t="s">
+      <c r="A123" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B123" s="159"/>
-      <c r="C123" s="159"/>
-      <c r="D123" s="159"/>
-      <c r="E123" s="160"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="96"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4013,39 +6589,39 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="20"/>
+      <c r="E124" s="19"/>
       <c r="F124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="100"/>
-      <c r="B125" s="101"/>
-      <c r="C125" s="101"/>
-      <c r="D125" s="101"/>
-      <c r="E125" s="102"/>
+      <c r="A125" s="125"/>
+      <c r="B125" s="126"/>
+      <c r="C125" s="126"/>
+      <c r="D125" s="126"/>
+      <c r="E125" s="127"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="100"/>
-      <c r="B126" s="101"/>
-      <c r="C126" s="101"/>
-      <c r="D126" s="101"/>
-      <c r="E126" s="102"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="126"/>
+      <c r="C126" s="126"/>
+      <c r="D126" s="126"/>
+      <c r="E126" s="127"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="100"/>
-      <c r="B127" s="101"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="101"/>
-      <c r="E127" s="102"/>
+      <c r="A127" s="125"/>
+      <c r="B127" s="126"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="126"/>
+      <c r="E127" s="127"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="100"/>
-      <c r="B128" s="101"/>
-      <c r="C128" s="101"/>
-      <c r="D128" s="101"/>
-      <c r="E128" s="102"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="126"/>
+      <c r="E128" s="127"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,75 +6631,75 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="20"/>
+      <c r="E129" s="19"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="103"/>
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="105"/>
+      <c r="A130" s="128"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="129"/>
+      <c r="D130" s="129"/>
+      <c r="E130" s="130"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="103"/>
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="105"/>
+      <c r="A131" s="128"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="129"/>
+      <c r="E131" s="130"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="103"/>
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="105"/>
+      <c r="A132" s="128"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="130"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="103"/>
-      <c r="B133" s="104"/>
-      <c r="C133" s="104"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="105"/>
+      <c r="A133" s="128"/>
+      <c r="B133" s="129"/>
+      <c r="C133" s="129"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="130"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="106"/>
-      <c r="B134" s="107"/>
-      <c r="C134" s="107"/>
-      <c r="D134" s="107"/>
-      <c r="E134" s="108"/>
+      <c r="A134" s="131"/>
+      <c r="B134" s="132"/>
+      <c r="C134" s="132"/>
+      <c r="D134" s="132"/>
+      <c r="E134" s="133"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="158" t="s">
+      <c r="A135" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="159"/>
-      <c r="C135" s="159"/>
-      <c r="D135" s="159"/>
-      <c r="E135" s="160"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="95"/>
+      <c r="D135" s="95"/>
+      <c r="E135" s="96"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="161" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" s="162"/>
-      <c r="C136" s="162"/>
-      <c r="D136" s="162"/>
-      <c r="E136" s="163"/>
+      <c r="A136" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136" s="98"/>
+      <c r="C136" s="98"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="99"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="81"/>
-      <c r="D137" s="81"/>
-      <c r="E137" s="82"/>
+      <c r="A137" s="74"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="76"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4131,7 +6707,7 @@
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="20"/>
+      <c r="E138" s="19"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,68 +6715,73 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="20"/>
+      <c r="E139" s="19"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="20"/>
+      <c r="E140" s="19"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="20"/>
+      <c r="E141" s="19"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="20"/>
+      <c r="E142" s="19"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="20"/>
+      <c r="E143" s="19"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="65" t="s">
+      <c r="B144" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="20"/>
+      <c r="E144" s="19"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="20"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="21"/>
+      <c r="E146" s="20"/>
     </row>
     <row r="147" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="244" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A50:E50"/>
+  <mergeCells count="35">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A108:E110"/>
+    <mergeCell ref="A112:E115"/>
+    <mergeCell ref="A104:E106"/>
+    <mergeCell ref="A117:E122"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B2:C2"/>
@@ -4212,25 +6793,25 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A125:E128"/>
-    <mergeCell ref="A130:E134"/>
     <mergeCell ref="B12:E16"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:E21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A125:E128"/>
+    <mergeCell ref="A130:E134"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0.14000000000000001" top="0.4" bottom="0.11" header="0.23333333333333334" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4243,7 +6824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -4262,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/lab5+6/Lab5_template_2018 (1).xlsx
+++ b/lab5+6/Lab5_template_2018 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyStuff\MyDocs\Programming Projects\dataplotting\lab5+6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{928FB877-D20A-4766-8496-71946F48442A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC632AA1-308D-4C79-8416-25025305EE91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Boxes Tested</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -158,21 +158,6 @@
     </r>
   </si>
   <si>
-    <t>Include Legend with Model values</t>
-  </si>
-  <si>
-    <t>Show measured data as symbols and circuit model as smooth curve</t>
-  </si>
-  <si>
-    <t>Place Bode Magnitude and Phase Plots here of Z</t>
-  </si>
-  <si>
-    <t>Indicate the data used for the model determination (i.e. f0, |Z|, f1, f2, etc.)</t>
-  </si>
-  <si>
-    <t>state topology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black Boxes Tested: </t>
   </si>
   <si>
@@ -204,9 +189,6 @@
       </rPr>
       <t xml:space="preserve"> Lab:</t>
     </r>
-  </si>
-  <si>
-    <t>List all circuit types that could explain DMM data. State why for each!</t>
   </si>
   <si>
     <r>
@@ -250,34 +232,6 @@
   </si>
   <si>
     <t>Stephen Chin</t>
-  </si>
-  <si>
-    <t>Single: BB-1P-11 and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Single Port Box: BB-1P-11</t>
-  </si>
-  <si>
-    <r>
-      <t>2.286 [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]</t>
-    </r>
   </si>
   <si>
     <t>Type VII</t>
@@ -342,9 +296,6 @@
   </si>
   <si>
     <t>Instruments:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> include everything used (i.e. resistors, protoboard, DMM scope, etc.)</t>
   </si>
   <si>
     <t>Single Port Box. BB-1P-11</t>
@@ -472,6 +423,185 @@
       <t xml:space="preserve"> was determined by taking the impedence of the single box at extremely low frequency, when the phase was at 0. From that, the inductance was found using the formula in the bode plots in lecture notes 6. The break frequency was found using inductance and series resistance. The resistor value can be found with the inductance value at high frequency. From there C was estimated using the 45 degree phase point.</t>
     </r>
   </si>
+  <si>
+    <t>DMM, Test resistor, Protoboard, Ocsilloscope, Function Generator</t>
+  </si>
+  <si>
+    <t>BB-1P-11</t>
+  </si>
+  <si>
+    <t>In general, the phase measurements were as expected for the box. I expected a smoother curve as the phase approached 90, but this may have been due to the small number of measured data points. After the inductor break freqency was passed, the phase rose to near 90, then dropped back down to 0, as expected.</t>
+  </si>
+  <si>
+    <r>
+      <t>There are some problems with this model, that I have found to be dependent on my value for  the capactance. If the capcitance was higher, such as in the microfarad scale rather than the nanofarad scale, both the phase and magnitude plots would fit together almost perfectly. I attribute this offset to my value for f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>as the value was eyeballed from the chart, and was a  large amount of impact on the estimated value for capacitance. To fit the measured data nicer, I believe that a 1.4246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">F capactiance would fit better, but I was not able to reach this in my measurements. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Single:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BB-1P-11 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dual:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> BB-2P-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Single:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Type VII</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Single:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 55 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dual: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Single:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2.286 [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +611,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -608,6 +738,23 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Helvetica"/>
     </font>
@@ -1762,7 +1909,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1773,8 +1920,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1859,15 +2004,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
@@ -1878,14 +2014,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1951,6 +2081,264 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1978,72 +2366,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2053,223 +2375,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2457,12 +2596,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4541949" cy="583429"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2509,6 +2648,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2561,7 +2701,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2576,7 +2716,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2591,7 +2731,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2604,7 +2744,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2618,7 +2758,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2632,7 +2772,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -2650,7 +2790,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2664,7 +2804,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2678,7 +2818,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2693,7 +2833,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2706,7 +2846,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2718,7 +2858,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2734,7 +2874,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2802,7 +2942,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2815,7 +2955,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2829,7 +2969,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2843,7 +2983,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2857,7 +2997,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2870,7 +3010,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2886,7 +3026,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2899,7 +3039,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2914,7 +3054,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2926,7 +3066,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2938,7 +3078,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2952,7 +3092,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2974,7 +3114,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2989,7 +3129,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3002,7 +3142,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3014,7 +3154,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3028,7 +3168,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3041,7 +3181,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3055,7 +3195,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3069,7 +3209,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3087,7 +3227,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3101,7 +3241,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3115,7 +3255,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3128,7 +3268,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3140,7 +3280,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3152,7 +3292,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3164,7 +3304,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3178,7 +3318,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3191,7 +3331,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3205,7 +3345,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3217,7 +3357,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3231,7 +3371,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3245,7 +3385,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3547,7 +3687,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3562,7 +3702,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3575,7 +3715,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3587,7 +3727,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3601,7 +3741,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3614,7 +3754,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3628,7 +3768,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3642,7 +3782,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3660,7 +3800,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3674,7 +3814,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3838,7 +3978,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4090,12 +4230,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>94149</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>2930</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1828834" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -4198,7 +4338,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -4268,12 +4408,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99645</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3262753" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4325,7 +4465,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4338,7 +4478,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4352,7 +4492,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4366,7 +4506,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4380,7 +4520,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -4535,7 +4675,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4623,12 +4763,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>260838</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1812484" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4704,7 +4844,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4773,19 +4913,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>202222</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>172915</xdr:rowOff>
+      <xdr:colOff>208359</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>147635</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1808187" cy="172227"/>
+    <xdr:ext cx="1373325" cy="262123"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D43A6C-0410-4BA9-B4AA-B36E769A6E70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B5211A-D2BA-4CF8-8E5F-1066A885784E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4793,8 +4933,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="202222" y="24315127"/>
-              <a:ext cx="1808187" cy="172227"/>
+              <a:off x="208359" y="24369710"/>
+              <a:ext cx="1373325" cy="262123"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4823,14 +4963,14 @@
             <a:p>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
+                  <m:sSubSup>
+                    <m:sSubSupPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:sSubPr>
+                    </m:sSubSupPr>
                     <m:e>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -4847,18 +4987,98 @@
                         <m:t>𝐵</m:t>
                       </m:r>
                     </m:sub>
-                  </m:sSub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=6</m:t>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑅</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐿</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑒𝑟</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝜋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=383.198</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>kHz from measured data</a:t>
+                <a:t>Hz</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4867,10 +5087,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D43A6C-0410-4BA9-B4AA-B36E769A6E70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B5211A-D2BA-4CF8-8E5F-1066A885784E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4878,8 +5098,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="202222" y="24315127"/>
-              <a:ext cx="1808187" cy="172227"/>
+              <a:off x="208359" y="24369710"/>
+              <a:ext cx="1373325" cy="262123"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4910,11 +5130,24 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑓_𝐵=6</a:t>
+                <a:t>𝑓_𝐵^𝐿=(𝑅_𝐿^𝑠𝑒𝑟)/2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=383.198</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>kHz from measured data</a:t>
+                <a:t>Hz</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4923,6 +5156,1043 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255985</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>36909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1557093" cy="313356"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0A8FBB-435B-4B88-B334-B5D0031871C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="255985" y="24659034"/>
+              <a:ext cx="1557093" cy="313356"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐶</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:begChr m:val="["/>
+                          <m:endChr m:val="]"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑅</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝐿</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−2</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑓</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝐵</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=1.4246</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>nF</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0A8FBB-435B-4B88-B334-B5D0031871C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="255985" y="24659034"/>
+              <a:ext cx="1557093" cy="313356"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈1/𝑅[𝑅/𝐿−2𝜋𝑓_𝐵 ] =1.4246</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>nF</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1184673</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320893</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14A3BDC-FD8D-4F23-A2C9-BBB1AC12B7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2268142" y="5268517"/>
+          <a:ext cx="2714048" cy="2000249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39812</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>106826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2165F4BD-9E48-4473-965C-B4D0316C0D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39812" y="15030450"/>
+          <a:ext cx="4379787" cy="3107201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1109662</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="973793" cy="872098"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D566676B-E995-4D35-AC62-E4C88FB0E0BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4595812" y="16540162"/>
+              <a:ext cx="973793" cy="872098"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Model Params</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=959</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Ω</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑒𝑟</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=3</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Ω</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑓</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=383.198</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hz</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐶</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=1.4246</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>nF</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D566676B-E995-4D35-AC62-E4C88FB0E0BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4595812" y="16540162"/>
+              <a:ext cx="973793" cy="872098"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Model Params</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅=959</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ω</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅_𝐿^𝑠𝑒𝑟=3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ω</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓_𝐵^𝐿=383.198</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Hz</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=1.4246</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>nF</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>909726</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>195989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF49830-ACBB-44D2-AA2F-EDB1A0D699B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38098" y="18554700"/>
+          <a:ext cx="4357778" cy="3091589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5232,7 +6502,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5276,7 +6546,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5298,10 +6568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5314,365 +6584,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="86">
+      <c r="C2" s="145"/>
+      <c r="D2" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="75">
         <v>41958</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="146">
+        <v>406</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="120"/>
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="154"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="77"/>
+      <c r="B6" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="152"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="182"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="156"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="198" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="153"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="78"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="161"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="161"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
+      <c r="A22" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="164" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="64" t="s">
-        <v>41</v>
+      <c r="A31" s="24"/>
+      <c r="B31" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="74"/>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -5698,1090 +6970,1148 @@
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="102"/>
-    </row>
-    <row r="51" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="176"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="177"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="31" t="s">
+      <c r="C52" s="50"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="36" t="s">
+      <c r="B53" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D53" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E53" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+    <row r="54" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
         <v>10</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B54" s="32">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C53" s="91">
+      <c r="C54" s="80">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D53" s="39">
-        <f>B53/(C53*10^-3)</f>
+      <c r="D54" s="37">
+        <f>B54/(C54*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E53" s="42">
-        <f>(0)*A53*360</f>
+      <c r="E54" s="40">
+        <f>(0)*A54*360</f>
         <v>0</v>
       </c>
-      <c r="F53" s="93"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
+      <c r="F54" s="82"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
         <v>20</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B55" s="33">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C55" s="81">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D54" s="40">
-        <f>B54/(C54*10^-3)</f>
+      <c r="D55" s="38">
+        <f>B55/(C55*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E54" s="43">
-        <f>(0)*A54*360</f>
+      <c r="E55" s="41">
+        <f>(0)*A55*360</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="31">
         <v>40</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B56" s="33">
         <v>2.64E-2</v>
       </c>
-      <c r="C55" s="163">
-        <f t="shared" ref="C55:C62" si="0">9.68/0.9994</f>
+      <c r="C56" s="83">
+        <f t="shared" ref="C56:C63" si="0">9.68/0.9994</f>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D55" s="40">
-        <f t="shared" ref="D55:D72" si="1">B55/(C55*10^-3)</f>
+      <c r="D56" s="38">
+        <f t="shared" ref="D56:D73" si="1">B56/(C56*10^-3)</f>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E55" s="43">
-        <f>(300*10^-6)*A55*360</f>
+      <c r="E56" s="41">
+        <f>(300*10^-6)*A56*360</f>
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
         <v>80</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B57" s="33">
         <v>2.64E-2</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C57" s="35">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D57" s="38">
         <f t="shared" si="1"/>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E56" s="43">
-        <f>(480*10^-6)*A56*360</f>
+      <c r="E57" s="41">
+        <f>(480*10^-6)*A57*360</f>
         <v>13.823999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="31">
         <v>100</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B58" s="33">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C58" s="35">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D58" s="38">
         <f t="shared" si="1"/>
         <v>2.8082314049586774</v>
       </c>
-      <c r="E57" s="43">
-        <f>(440*10^-6)*A57*360</f>
+      <c r="E58" s="41">
+        <f>(440*10^-6)*A58*360</f>
         <v>15.84</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="31">
         <v>200</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B59" s="33">
         <v>3.04E-2</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C59" s="35">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D58" s="40">
+      <c r="D59" s="38">
         <f t="shared" si="1"/>
         <v>3.1386115702479338</v>
       </c>
-      <c r="E58" s="43">
-        <f>(420*10^-6)*A58*360</f>
+      <c r="E59" s="41">
+        <f>(420*10^-6)*A59*360</f>
         <v>30.24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
         <v>400</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B60" s="33">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="C59" s="92">
+      <c r="C60" s="81">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D60" s="38">
         <f t="shared" si="1"/>
         <v>4.212347107438017</v>
       </c>
-      <c r="E59" s="43">
-        <f>(370*10^-6)*A59*360</f>
+      <c r="E60" s="41">
+        <f>(370*10^-6)*A60*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="31">
         <v>800</v>
       </c>
-      <c r="B60" s="35">
+      <c r="B61" s="33">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="C60" s="92">
+      <c r="C61" s="81">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D60" s="40">
+      <c r="D61" s="38">
         <f t="shared" si="1"/>
         <v>6.6901983471074375</v>
       </c>
-      <c r="E60" s="43">
-        <f>(240*10^-6)*A60*360</f>
+      <c r="E61" s="41">
+        <f>(240*10^-6)*A61*360</f>
         <v>69.11999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="31">
         <v>1000</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B62" s="33">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C62" s="35">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D62" s="38">
         <f t="shared" si="1"/>
         <v>8.176909090909092</v>
       </c>
-      <c r="E61" s="43">
-        <f>(210*10^-6)*A61*360</f>
+      <c r="E62" s="41">
+        <f>(210*10^-6)*A62*360</f>
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="31">
         <v>2000</v>
       </c>
-      <c r="B62" s="35">
+      <c r="B63" s="33">
         <v>0.152</v>
       </c>
-      <c r="C62" s="92">
+      <c r="C63" s="81">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D63" s="38">
         <f t="shared" si="1"/>
         <v>15.69305785123967</v>
       </c>
-      <c r="E62" s="43">
-        <f>(118*10^-6)*A62*360</f>
+      <c r="E63" s="41">
+        <f>(118*10^-6)*A63*360</f>
         <v>84.96</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
         <v>4000</v>
       </c>
-      <c r="B63" s="35">
+      <c r="B64" s="33">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C63" s="92">
+      <c r="C64" s="81">
         <f>9.76/0.9994</f>
         <v>9.7658595157094261</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D64" s="38">
         <f t="shared" si="1"/>
         <v>30.104877049180324</v>
       </c>
-      <c r="E63" s="43">
-        <f>(57*10^-6)*A63*360</f>
+      <c r="E64" s="41">
+        <f>(57*10^-6)*A64*360</f>
         <v>82.08</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
         <v>8000</v>
       </c>
-      <c r="B64" s="35">
+      <c r="B65" s="33">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C65" s="35">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D65" s="38">
         <f t="shared" si="1"/>
         <v>59.556081632653047</v>
       </c>
-      <c r="E64" s="43">
-        <f>(28.8*10^-6)*A64*360</f>
+      <c r="E65" s="41">
+        <f>(28.8*10^-6)*A65*360</f>
         <v>82.944000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="31">
         <v>10000</v>
       </c>
-      <c r="B65" s="35">
+      <c r="B66" s="33">
         <v>0.72</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C66" s="35">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D66" s="38">
         <f t="shared" si="1"/>
         <v>73.425306122448973</v>
       </c>
-      <c r="E65" s="43">
-        <f>(22.4*10^-6)*A65*360</f>
+      <c r="E66" s="41">
+        <f>(22.4*10^-6)*A66*360</f>
         <v>80.639999999999986</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
         <v>20000</v>
       </c>
-      <c r="B66" s="35">
+      <c r="B67" s="33">
         <v>1.4</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C67" s="35">
         <f>9.4/0.9994</f>
         <v>9.4056433860316204</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D67" s="38">
         <f t="shared" si="1"/>
         <v>148.84680851063828</v>
       </c>
-      <c r="E66" s="43">
-        <f>(10.8*10^-6)*A66*360</f>
+      <c r="E67" s="41">
+        <f>(10.8*10^-6)*A67*360</f>
         <v>77.760000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
         <v>40000</v>
       </c>
-      <c r="B67" s="35">
+      <c r="B68" s="33">
         <v>2.56</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C68" s="35">
         <f>9/0.9994</f>
         <v>9.0054032419451673</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D68" s="38">
         <f t="shared" si="1"/>
         <v>284.27377777777775</v>
       </c>
-      <c r="E67" s="43">
-        <f>(5.3*10^-6)*A67*360</f>
+      <c r="E68" s="41">
+        <f>(5.3*10^-6)*A68*360</f>
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
         <v>80000</v>
       </c>
-      <c r="B68" s="35">
+      <c r="B69" s="33">
         <v>3.76</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C69" s="35">
         <f>7.4/0.9994</f>
         <v>7.40444266559936</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D69" s="38">
         <f t="shared" si="1"/>
         <v>507.80324324324317</v>
       </c>
-      <c r="E68" s="43">
-        <f>(2.08*10^-6)*A68*360</f>
+      <c r="E69" s="41">
+        <f>(2.08*10^-6)*A69*360</f>
         <v>59.903999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
         <v>100000</v>
       </c>
-      <c r="B69" s="35">
+      <c r="B70" s="33">
         <v>4</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C70" s="35">
         <f>7/0.9994</f>
         <v>7.0042025215129078</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D70" s="38">
         <f t="shared" si="1"/>
         <v>571.08571428571429</v>
       </c>
-      <c r="E69" s="43">
-        <f>(1.48*10^-6)*A69*360</f>
+      <c r="E70" s="41">
+        <f>(1.48*10^-6)*A70*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
         <v>200000</v>
       </c>
-      <c r="B70" s="35">
+      <c r="B71" s="33">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C71" s="35">
         <f>5.6/0.9994</f>
         <v>5.6033620172103262</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D71" s="38">
         <f t="shared" si="1"/>
         <v>828.07428571428557</v>
       </c>
-      <c r="E70" s="43">
-        <f>(480*10^-9)*A70*360</f>
+      <c r="E71" s="41">
+        <f>(480*10^-9)*A71*360</f>
         <v>34.56</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="66">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="55">
         <v>500000</v>
       </c>
-      <c r="B71" s="67">
+      <c r="B72" s="56">
         <v>4.8</v>
       </c>
-      <c r="C71" s="68">
+      <c r="C72" s="57">
         <f>5/0.9994</f>
         <v>5.0030018010806483</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D72" s="38">
         <f t="shared" si="1"/>
         <v>959.42400000000009</v>
       </c>
-      <c r="E71" s="43">
-        <f>(56*10^-9)*A71*360</f>
+      <c r="E72" s="41">
+        <f>(56*10^-9)*A72*360</f>
         <v>10.080000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="69">
+    <row r="73" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="58">
         <v>750000</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B73" s="59">
         <v>4.76</v>
       </c>
-      <c r="C72" s="71">
+      <c r="C73" s="60">
         <f>4.96/0.9994</f>
         <v>4.9629777866720035</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D73" s="38">
         <f t="shared" si="1"/>
         <v>959.1016129032256</v>
       </c>
-      <c r="E72" s="43">
-        <f>(12*10^-9)*A72*360</f>
+      <c r="E73" s="41">
+        <f>(12*10^-9)*A73*360</f>
         <v>3.24</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="100" t="s">
+    <row r="74" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="101"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="102"/>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="177"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="189"/>
+      <c r="B76" s="190"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="191"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
+      <c r="A77" s="192"/>
+      <c r="B77" s="193"/>
+      <c r="C77" s="193"/>
+      <c r="D77" s="193"/>
+      <c r="E77" s="194"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="192"/>
+      <c r="B78" s="193"/>
+      <c r="C78" s="193"/>
+      <c r="D78" s="193"/>
+      <c r="E78" s="194"/>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="192"/>
+      <c r="B79" s="193"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="193"/>
+      <c r="E79" s="194"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
+      <c r="A80" s="192"/>
+      <c r="B80" s="193"/>
+      <c r="C80" s="193"/>
+      <c r="D80" s="193"/>
+      <c r="E80" s="194"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
-      <c r="B81" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
+      <c r="A81" s="192"/>
+      <c r="B81" s="193"/>
+      <c r="C81" s="193"/>
+      <c r="D81" s="193"/>
+      <c r="E81" s="194"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="192"/>
+      <c r="B82" s="193"/>
+      <c r="C82" s="193"/>
+      <c r="D82" s="193"/>
+      <c r="E82" s="194"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
+      <c r="A83" s="192"/>
+      <c r="B83" s="193"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="194"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
+      <c r="A84" s="192"/>
+      <c r="B84" s="193"/>
+      <c r="C84" s="193"/>
+      <c r="D84" s="193"/>
+      <c r="E84" s="194"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
+      <c r="A85" s="192"/>
+      <c r="B85" s="193"/>
+      <c r="C85" s="193"/>
+      <c r="D85" s="193"/>
+      <c r="E85" s="194"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="192"/>
+      <c r="B86" s="193"/>
+      <c r="C86" s="193"/>
+      <c r="D86" s="193"/>
+      <c r="E86" s="194"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
+      <c r="A87" s="192"/>
+      <c r="B87" s="193"/>
+      <c r="C87" s="193"/>
+      <c r="D87" s="193"/>
+      <c r="E87" s="194"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
+      <c r="A88" s="192"/>
+      <c r="B88" s="193"/>
+      <c r="C88" s="193"/>
+      <c r="D88" s="193"/>
+      <c r="E88" s="194"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
+      <c r="A89" s="192"/>
+      <c r="B89" s="193"/>
+      <c r="C89" s="193"/>
+      <c r="D89" s="193"/>
+      <c r="E89" s="194"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
+      <c r="A90" s="192"/>
+      <c r="B90" s="193"/>
+      <c r="C90" s="193"/>
+      <c r="D90" s="193"/>
+      <c r="E90" s="194"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
+      <c r="A91" s="192"/>
+      <c r="B91" s="193"/>
+      <c r="C91" s="193"/>
+      <c r="D91" s="193"/>
+      <c r="E91" s="194"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
+      <c r="A92" s="192"/>
+      <c r="B92" s="193"/>
+      <c r="C92" s="193"/>
+      <c r="D92" s="193"/>
+      <c r="E92" s="194"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="52"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7"/>
+      <c r="A93" s="192"/>
+      <c r="B93" s="193"/>
+      <c r="C93" s="193"/>
+      <c r="D93" s="193"/>
+      <c r="E93" s="194"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
+      <c r="A94" s="192"/>
+      <c r="B94" s="193"/>
+      <c r="C94" s="193"/>
+      <c r="D94" s="193"/>
+      <c r="E94" s="194"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
+      <c r="A95" s="192"/>
+      <c r="B95" s="193"/>
+      <c r="C95" s="193"/>
+      <c r="D95" s="193"/>
+      <c r="E95" s="194"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
+      <c r="A96" s="192"/>
+      <c r="B96" s="193"/>
+      <c r="C96" s="193"/>
+      <c r="D96" s="193"/>
+      <c r="E96" s="194"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="55"/>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="27" t="s">
+      <c r="A97" s="192"/>
+      <c r="B97" s="193"/>
+      <c r="C97" s="193"/>
+      <c r="D97" s="193"/>
+      <c r="E97" s="194"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="192"/>
+      <c r="B98" s="193"/>
+      <c r="C98" s="193"/>
+      <c r="D98" s="193"/>
+      <c r="E98" s="194"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="192"/>
+      <c r="B99" s="193"/>
+      <c r="C99" s="193"/>
+      <c r="D99" s="193"/>
+      <c r="E99" s="194"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="192"/>
+      <c r="B100" s="193"/>
+      <c r="C100" s="193"/>
+      <c r="D100" s="193"/>
+      <c r="E100" s="194"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="192"/>
+      <c r="B101" s="193"/>
+      <c r="C101" s="193"/>
+      <c r="D101" s="193"/>
+      <c r="E101" s="194"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="192"/>
+      <c r="B102" s="193"/>
+      <c r="C102" s="193"/>
+      <c r="D102" s="193"/>
+      <c r="E102" s="194"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="192"/>
+      <c r="B103" s="193"/>
+      <c r="C103" s="193"/>
+      <c r="D103" s="193"/>
+      <c r="E103" s="194"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="192"/>
+      <c r="B104" s="193"/>
+      <c r="C104" s="193"/>
+      <c r="D104" s="193"/>
+      <c r="E104" s="194"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="192"/>
+      <c r="B105" s="193"/>
+      <c r="C105" s="193"/>
+      <c r="D105" s="193"/>
+      <c r="E105" s="194"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="195"/>
+      <c r="B106" s="196"/>
+      <c r="C106" s="196"/>
+      <c r="D106" s="196"/>
+      <c r="E106" s="197"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="100" t="s">
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="101"/>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="102"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="46" t="s">
+      <c r="B108" s="176"/>
+      <c r="C108" s="176"/>
+      <c r="D108" s="176"/>
+      <c r="E108" s="177"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" s="152"/>
-      <c r="E101" s="153"/>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
+      <c r="B109" s="47"/>
+      <c r="C109" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="130"/>
+      <c r="E109" s="131"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="155"/>
-      <c r="E102" s="156"/>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="48" t="s">
+      <c r="B110" s="48"/>
+      <c r="C110" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="133"/>
+      <c r="E110" s="134"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="D103" s="158"/>
-      <c r="E103" s="159"/>
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="175"/>
-      <c r="C104" s="175"/>
-      <c r="D104" s="175"/>
-      <c r="E104" s="176"/>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="177"/>
-      <c r="B105" s="178"/>
-      <c r="C105" s="178"/>
-      <c r="D105" s="178"/>
-      <c r="E105" s="179"/>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="180"/>
-      <c r="B106" s="181"/>
-      <c r="C106" s="181"/>
-      <c r="D106" s="181"/>
-      <c r="E106" s="182"/>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="100" t="s">
+      <c r="B111" s="49"/>
+      <c r="C111" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="136"/>
+      <c r="E111" s="137"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="106"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="107"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="108"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="109"/>
+      <c r="D113" s="109"/>
+      <c r="E113" s="110"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="111"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="112"/>
+      <c r="E114" s="113"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="101"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="102"/>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="165"/>
-      <c r="B108" s="166"/>
-      <c r="C108" s="166"/>
-      <c r="D108" s="166"/>
-      <c r="E108" s="167"/>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="168"/>
-      <c r="B109" s="169"/>
-      <c r="C109" s="169"/>
-      <c r="D109" s="169"/>
-      <c r="E109" s="170"/>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="171"/>
-      <c r="B110" s="172"/>
-      <c r="C110" s="172"/>
-      <c r="D110" s="172"/>
-      <c r="E110" s="173"/>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="100" t="s">
+      <c r="B115" s="176"/>
+      <c r="C115" s="176"/>
+      <c r="D115" s="176"/>
+      <c r="E115" s="177"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="87"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="88"/>
+      <c r="D116" s="88"/>
+      <c r="E116" s="89"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="90"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="92"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="93"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="94"/>
+      <c r="E118" s="95"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="101"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="102"/>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
-      <c r="D112" s="184"/>
-      <c r="E112" s="185"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="186"/>
-      <c r="B113" s="187"/>
-      <c r="C113" s="187"/>
-      <c r="D113" s="187"/>
-      <c r="E113" s="188"/>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="186"/>
-      <c r="B114" s="187"/>
-      <c r="C114" s="187"/>
-      <c r="D114" s="187"/>
-      <c r="E114" s="188"/>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="189"/>
-      <c r="B115" s="190"/>
-      <c r="C115" s="190"/>
-      <c r="D115" s="190"/>
-      <c r="E115" s="191"/>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="56" t="s">
+      <c r="B119" s="176"/>
+      <c r="C119" s="176"/>
+      <c r="D119" s="176"/>
+      <c r="E119" s="177"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="97"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="98"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="99"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="100"/>
+      <c r="D121" s="100"/>
+      <c r="E121" s="101"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="99"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="100"/>
+      <c r="D122" s="100"/>
+      <c r="E122" s="101"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="102"/>
+      <c r="B123" s="103"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="104"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="58"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="193"/>
-      <c r="B117" s="194"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="194"/>
-      <c r="E117" s="195"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="192"/>
-      <c r="B118" s="196"/>
-      <c r="C118" s="196"/>
-      <c r="D118" s="196"/>
-      <c r="E118" s="197"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="192"/>
-      <c r="B119" s="196"/>
-      <c r="C119" s="196"/>
-      <c r="D119" s="196"/>
-      <c r="E119" s="197"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="192"/>
-      <c r="B120" s="196"/>
-      <c r="C120" s="196"/>
-      <c r="D120" s="196"/>
-      <c r="E120" s="197"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="192"/>
-      <c r="B121" s="196"/>
-      <c r="C121" s="196"/>
-      <c r="D121" s="196"/>
-      <c r="E121" s="197"/>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="198"/>
-      <c r="B122" s="199"/>
-      <c r="C122" s="199"/>
-      <c r="D122" s="199"/>
-      <c r="E122" s="200"/>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="94" t="s">
+      <c r="B124" s="176"/>
+      <c r="C124" s="176"/>
+      <c r="D124" s="176"/>
+      <c r="E124" s="177"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="114"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="116"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="117"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="119"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="117"/>
+      <c r="B127" s="118"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="119"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="117"/>
+      <c r="B128" s="118"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="119"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="117"/>
+      <c r="B129" s="118"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="118"/>
+      <c r="E129" s="119"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="120"/>
+      <c r="B130" s="121"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="122"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="96"/>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="B131" s="170"/>
+      <c r="C131" s="170"/>
+      <c r="D131" s="170"/>
+      <c r="E131" s="171"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="19"/>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="125"/>
-      <c r="B125" s="126"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="126"/>
-      <c r="E125" s="127"/>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="125"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="126"/>
-      <c r="D126" s="126"/>
-      <c r="E126" s="127"/>
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="125"/>
-      <c r="B127" s="126"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="126"/>
-      <c r="E127" s="127"/>
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="125"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="126"/>
-      <c r="E128" s="127"/>
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="17"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="179"/>
+      <c r="C133" s="179"/>
+      <c r="D133" s="179"/>
+      <c r="E133" s="180"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="178"/>
+      <c r="B134" s="179"/>
+      <c r="C134" s="179"/>
+      <c r="D134" s="179"/>
+      <c r="E134" s="180"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="178"/>
+      <c r="B135" s="179"/>
+      <c r="C135" s="179"/>
+      <c r="D135" s="179"/>
+      <c r="E135" s="180"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="178"/>
+      <c r="B136" s="179"/>
+      <c r="C136" s="179"/>
+      <c r="D136" s="179"/>
+      <c r="E136" s="180"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="19"/>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="128"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="130"/>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="128"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="130"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="128"/>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="130"/>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="128"/>
-      <c r="B133" s="129"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="131"/>
-      <c r="B134" s="132"/>
-      <c r="C134" s="132"/>
-      <c r="D134" s="132"/>
-      <c r="E134" s="133"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="94" t="s">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="17"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="184"/>
+      <c r="C138" s="184"/>
+      <c r="D138" s="184"/>
+      <c r="E138" s="185"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="183"/>
+      <c r="B139" s="184"/>
+      <c r="C139" s="184"/>
+      <c r="D139" s="184"/>
+      <c r="E139" s="185"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="183"/>
+      <c r="B140" s="184"/>
+      <c r="C140" s="184"/>
+      <c r="D140" s="184"/>
+      <c r="E140" s="185"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="183"/>
+      <c r="B141" s="184"/>
+      <c r="C141" s="184"/>
+      <c r="D141" s="184"/>
+      <c r="E141" s="185"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="186"/>
+      <c r="B142" s="187"/>
+      <c r="C142" s="187"/>
+      <c r="D142" s="187"/>
+      <c r="E142" s="188"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="96"/>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B136" s="98"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="98"/>
-      <c r="E136" s="99"/>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="74"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="76"/>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="19"/>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="19"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="19"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="19"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="19"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="19"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="62" t="s">
+      <c r="B143" s="170"/>
+      <c r="C143" s="170"/>
+      <c r="D143" s="170"/>
+      <c r="E143" s="171"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144" s="173"/>
+      <c r="C144" s="173"/>
+      <c r="D144" s="173"/>
+      <c r="E144" s="174"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="63"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="19"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="19"/>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="20"/>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="18"/>
+    </row>
+    <row r="155" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A108:E110"/>
-    <mergeCell ref="A112:E115"/>
-    <mergeCell ref="A104:E106"/>
-    <mergeCell ref="A117:E122"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
+  <mergeCells count="36">
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A133:E136"/>
+    <mergeCell ref="A138:E142"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A124:E124"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B2:C2"/>
@@ -6797,20 +8127,25 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:E21"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A125:E128"/>
-    <mergeCell ref="A130:E134"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A116:E118"/>
+    <mergeCell ref="A120:E123"/>
+    <mergeCell ref="A112:E114"/>
+    <mergeCell ref="A125:E130"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0.14000000000000001" top="0.4" bottom="0.11" header="0.23333333333333334" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="49" max="16383" man="1"/>
+    <brk id="73" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/lab5+6/Lab5_template_2018 (1).xlsx
+++ b/lab5+6/Lab5_template_2018 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyStuff\MyDocs\Programming Projects\dataplotting\lab5+6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikmuj\OneDrive\Documents\Programming\dataplotting\lab5+6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC632AA1-308D-4C79-8416-25025305EE91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60762DB2-5280-4305-A9A3-15A14CDA8B70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Boxes Tested</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -117,9 +123,6 @@
     <t xml:space="preserve"> Equation Derivations</t>
   </si>
   <si>
-    <t xml:space="preserve">Show derivation of Impedance </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -167,53 +170,10 @@
     <t>Lab Section:</t>
   </si>
   <si>
-    <r>
-      <t>Date of 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rst</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Lab:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Impedance of Single Port Box: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>(circuit description)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Spring 2018</t>
   </si>
   <si>
     <t>Fall 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Page 3 of 3                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Page 1 of 3                   </t>
   </si>
   <si>
     <t>Date Submitted: Dec. 4, 2018</t>
@@ -602,6 +562,60 @@
       <t>]</t>
     </r>
   </si>
+  <si>
+    <t>Dual Port Box. BB-1P-11</t>
+  </si>
+  <si>
+    <t>4th Order Butterworth Filter</t>
+  </si>
+  <si>
+    <t>Prototype:</t>
+  </si>
+  <si>
+    <t>Measured:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Page 5 of 5                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Page 4 of 5                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Page 2 of 5                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Page 1 of 5                   </t>
+  </si>
+  <si>
+    <r>
+      <t>Date of 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lab:</t>
+    </r>
+  </si>
+  <si>
+    <t>Impedance of Single Port Box: (R + C)||(L + R_L)</t>
+  </si>
+  <si>
+    <t>Dual Port Box: Voltage Transfer Function Equation</t>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +625,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -758,6 +772,12 @@
       <sz val="10"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -809,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1740,6 +1760,50 @@
       <top/>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,7 +1973,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1921,8 +1985,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,7 +1998,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2010,10 +2071,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -2039,9 +2096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,8 +2113,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -2083,321 +2135,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2408,7 +2145,369 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2596,7 +2695,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4541949" cy="583429"/>
@@ -4230,7 +4329,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>94149</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>2930</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1828834" cy="172227"/>
@@ -4408,7 +4507,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99645</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3262753" cy="175369"/>
@@ -4763,7 +4862,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>260838</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1812484" cy="172227"/>
@@ -4914,12 +5013,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>208359</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>147635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1373325" cy="262123"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5084,7 +5183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5160,12 +5259,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>255985</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>36909</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1557093" cy="313356"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5351,7 +5450,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5420,15 +5519,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1184673</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>17861</xdr:rowOff>
+      <xdr:rowOff>27386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>320893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>1376815</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5451,8 +5550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2268142" y="5268517"/>
-          <a:ext cx="2714048" cy="2000249"/>
+          <a:off x="1114426" y="5256611"/>
+          <a:ext cx="4920114" cy="3601639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5469,15 +5568,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>39812</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>39811</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>106826</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>86528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5500,8 +5599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39812" y="15030450"/>
-          <a:ext cx="4379787" cy="3107201"/>
+          <a:off x="39811" y="15449549"/>
+          <a:ext cx="5760913" cy="4087029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5517,8 +5616,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1109662</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
@@ -5538,7 +5637,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4595812" y="16540162"/>
+              <a:off x="4976812" y="18159412"/>
               <a:ext cx="973793" cy="872098"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5601,7 +5700,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5613,7 +5712,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5628,7 +5727,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5663,7 +5762,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5676,7 +5775,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5690,7 +5789,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5704,7 +5803,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5718,7 +5817,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5733,7 +5832,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5778,7 +5877,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5791,7 +5890,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5805,7 +5904,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5819,7 +5918,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5833,7 +5932,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5876,7 +5975,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5915,7 +6014,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4595812" y="16540162"/>
+              <a:off x="4976812" y="18159412"/>
               <a:ext cx="973793" cy="872098"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5972,7 +6071,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5984,7 +6083,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6008,7 +6107,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6020,7 +6119,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6079,7 +6178,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6110,19 +6209,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐶</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=1.4246</a:t>
+                <a:t>𝐶=1.4246</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -6147,15 +6234,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>19047</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>909726</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>195989</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1128835</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>205515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6178,8 +6265,2985 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38098" y="18554700"/>
-          <a:ext cx="4357778" cy="3091589"/>
+          <a:off x="19047" y="19564351"/>
+          <a:ext cx="5767513" cy="4091714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1371601</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310822B0-1366-486D-A2A4-3EFCEA40ADC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="33594675"/>
+          <a:ext cx="4914900" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EA84C1-E83F-4910-9174-6D3421101109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="35994975"/>
+          <a:ext cx="4914899" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98966</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5730334" cy="1361719"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D8D3A6-E180-464A-AB5D-C5FDCDF48E62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="98966" y="30584775"/>
+              <a:ext cx="5730334" cy="1361719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑒𝑟</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑒𝑟</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑒𝑟</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑒𝑟</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑍</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="["/>
+                            <m:endChr m:val="]"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:sSubSup>
+                                      <m:sSubSupPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubSupPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑅</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐿</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                      <m:sup>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑠𝑒𝑟</m:t>
+                                        </m:r>
+                                      </m:sup>
+                                    </m:sSubSup>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="el-GR" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑒𝑟</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="["/>
+                            <m:endChr m:val="]"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>(</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:sty m:val="p"/>
+                                      </m:rPr>
+                                      <a:rPr lang="el-GR" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>ω</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>)</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐿</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑠𝑒𝑟</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑗</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑅</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:d>
+                                      <m:dPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:dPr>
+                                      <m:e>
+                                        <m:sSubSup>
+                                          <m:sSubSupPr>
+                                            <m:ctrlPr>
+                                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                            </m:ctrlPr>
+                                          </m:sSubSupPr>
+                                          <m:e>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝑅</m:t>
+                                            </m:r>
+                                          </m:e>
+                                          <m:sub>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝐿</m:t>
+                                            </m:r>
+                                          </m:sub>
+                                          <m:sup>
+                                            <m:r>
+                                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              </a:rPr>
+                                              <m:t>𝑠𝑒𝑟</m:t>
+                                            </m:r>
+                                          </m:sup>
+                                        </m:sSubSup>
+                                      </m:e>
+                                    </m:d>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:f>
+                                  <m:fPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:fPr>
+                                  <m:num>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:num>
+                                  <m:den>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝐶</m:t>
+                                    </m:r>
+                                  </m:den>
+                                </m:f>
+                              </m:e>
+                            </m:d>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>+</m:t>
+                                    </m:r>
+                                    <m:sSubSup>
+                                      <m:sSubSupPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubSupPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑅</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐿</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                      <m:sup>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑠𝑒𝑟</m:t>
+                                        </m:r>
+                                      </m:sup>
+                                    </m:sSubSup>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:f>
+                                  <m:fPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:fPr>
+                                  <m:num>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:num>
+                                  <m:den>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝜔</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝐶</m:t>
+                                    </m:r>
+                                  </m:den>
+                                </m:f>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D8D3A6-E180-464A-AB5D-C5FDCDF48E62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="98966" y="30584775"/>
+              <a:ext cx="5730334" cy="1361719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑍=(𝑅+1/𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝐶)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||(𝑅_𝐿^𝑠𝑒𝑟+𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝐿)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(𝑅𝑅_𝐿^𝑠𝑒𝑟+𝐿/𝐶+𝑗(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝑅𝐿−(𝑅_𝐿^𝑠𝑒𝑟)/𝜔𝐶))/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅+𝑅_𝐿^𝑠𝑒𝑟+𝑗(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝐿−1/𝜔𝐶) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑍=(𝑅[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑅_𝐿^𝑠𝑒𝑟 )^2+(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿)^2 ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+𝑅_𝐿^𝑠𝑒𝑟 [</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅^2+1/〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ω</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿)〗^2 ])/((𝑅+𝑅_𝐿^𝑠𝑒𝑟 )^2+〖(𝜔𝐿−1/𝜔𝐶)〗^2 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑗[(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔𝑅^2 𝐿−(𝑅_𝐿^𝑠𝑒𝑟 )^2/𝜔𝐶−𝐿/𝐶 (𝜔𝐿−1/𝜔𝐶))/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑅+𝑅_𝐿^𝑠𝑒𝑟 )^2+〖(𝜔𝐿−1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜔𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)〗^2 )]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2857064" cy="537968"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C895C0A-6922-4919-A25C-B09D3F71A68C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1595437" y="38457187"/>
+              <a:ext cx="2857064" cy="537968"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜔</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜔</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜔</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑒𝑞</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐶</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑅</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝐶</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:den>
+                            </m:f>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C895C0A-6922-4919-A25C-B09D3F71A68C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1595437" y="38457187"/>
+              <a:ext cx="2857064" cy="537968"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻_𝑣 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(𝑅_3+𝑅_4)/𝑅_3  [〖−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2/(〖−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2+𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜔 2/(𝑅_𝑒𝑞 𝐶)+1/(𝑅_1 𝑅_2 𝐶^2 ))]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657894</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>191987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E30E664-179D-4836-902A-ED81C28C32A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="39119176"/>
+          <a:ext cx="4658394" cy="3306661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81F6D95-44AA-4A92-B481-A3B2F7CEE2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42633900"/>
+          <a:ext cx="1095375" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>420773</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1184218</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0177BB-FAB1-45C8-BE29-3966C4E792A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="420773" y="42795825"/>
+          <a:ext cx="5421170" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6502,7 +9566,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6546,7 +9610,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -6568,10 +9632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6584,1534 +9648,1836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="65">
+        <v>41958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="75">
-        <v>41958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="146">
+      <c r="B3" s="109">
         <v>406</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="16"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="154"/>
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="A5" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="181" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="155" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="67"/>
+      <c r="A8" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="198" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="67"/>
+      <c r="B9" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="126"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="126"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
+      <c r="B17" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="128"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="165"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="173" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="175"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="54" t="s">
-        <v>35</v>
+      <c r="A31" s="21"/>
+      <c r="B31" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="3"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="3"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="3"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="175" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="177"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="79" t="s">
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="91"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="34" t="s">
+      <c r="C47" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D47" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E47" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
+    <row r="48" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
         <v>10</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B48" s="29">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C54" s="80">
+      <c r="C48" s="70">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D54" s="37">
-        <f>B54/(C54*10^-3)</f>
+      <c r="D48" s="34">
+        <f>B48/(C48*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E54" s="40">
-        <f>(0)*A54*360</f>
+      <c r="E48" s="37">
+        <f>(0)*A48*360</f>
         <v>0</v>
       </c>
-      <c r="F54" s="82"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
+      <c r="F48" s="72"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
         <v>20</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B49" s="30">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C55" s="81">
+      <c r="C49" s="71">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D55" s="38">
-        <f>B55/(C55*10^-3)</f>
+      <c r="D49" s="35">
+        <f>B49/(C49*10^-3)</f>
         <v>2.6106775510204079</v>
       </c>
-      <c r="E55" s="41">
-        <f>(0)*A55*360</f>
+      <c r="E49" s="38">
+        <f>(0)*A49*360</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
         <v>40</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B50" s="30">
         <v>2.64E-2</v>
       </c>
-      <c r="C56" s="83">
-        <f t="shared" ref="C56:C63" si="0">9.68/0.9994</f>
+      <c r="C50" s="73">
+        <f t="shared" ref="C50:C57" si="0">9.68/0.9994</f>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D56" s="38">
-        <f t="shared" ref="D56:D73" si="1">B56/(C56*10^-3)</f>
+      <c r="D50" s="35">
+        <f t="shared" ref="D50:D67" si="1">B50/(C50*10^-3)</f>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E56" s="41">
-        <f>(300*10^-6)*A56*360</f>
+      <c r="E50" s="38">
+        <f>(300*10^-6)*A50*360</f>
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
         <v>80</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B51" s="30">
         <v>2.64E-2</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C51" s="32">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D51" s="35">
         <f t="shared" si="1"/>
         <v>2.7256363636363639</v>
       </c>
-      <c r="E57" s="41">
-        <f>(480*10^-6)*A57*360</f>
+      <c r="E51" s="38">
+        <f>(480*10^-6)*A51*360</f>
         <v>13.823999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
         <v>100</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B52" s="30">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C52" s="32">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D52" s="35">
         <f t="shared" si="1"/>
         <v>2.8082314049586774</v>
       </c>
-      <c r="E58" s="41">
-        <f>(440*10^-6)*A58*360</f>
+      <c r="E52" s="38">
+        <f>(440*10^-6)*A52*360</f>
         <v>15.84</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
         <v>200</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B53" s="30">
         <v>3.04E-2</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C53" s="32">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D53" s="35">
         <f t="shared" si="1"/>
         <v>3.1386115702479338</v>
       </c>
-      <c r="E59" s="41">
-        <f>(420*10^-6)*A59*360</f>
+      <c r="E53" s="38">
+        <f>(420*10^-6)*A53*360</f>
         <v>30.24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
         <v>400</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B54" s="30">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="C60" s="81">
+      <c r="C54" s="71">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D54" s="35">
         <f t="shared" si="1"/>
         <v>4.212347107438017</v>
       </c>
-      <c r="E60" s="41">
-        <f>(370*10^-6)*A60*360</f>
+      <c r="E54" s="38">
+        <f>(370*10^-6)*A54*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
         <v>800</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B55" s="30">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="C61" s="81">
+      <c r="C55" s="71">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D55" s="35">
         <f t="shared" si="1"/>
         <v>6.6901983471074375</v>
       </c>
-      <c r="E61" s="41">
-        <f>(240*10^-6)*A61*360</f>
+      <c r="E55" s="38">
+        <f>(240*10^-6)*A55*360</f>
         <v>69.11999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
         <v>1000</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B56" s="30">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C56" s="32">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D56" s="35">
         <f t="shared" si="1"/>
         <v>8.176909090909092</v>
       </c>
-      <c r="E62" s="41">
-        <f>(210*10^-6)*A62*360</f>
+      <c r="E56" s="38">
+        <f>(210*10^-6)*A56*360</f>
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
         <v>2000</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B57" s="30">
         <v>0.152</v>
       </c>
-      <c r="C63" s="81">
+      <c r="C57" s="71">
         <f t="shared" si="0"/>
         <v>9.6858114868921348</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D57" s="35">
         <f t="shared" si="1"/>
         <v>15.69305785123967</v>
       </c>
-      <c r="E63" s="41">
-        <f>(118*10^-6)*A63*360</f>
+      <c r="E57" s="38">
+        <f>(118*10^-6)*A57*360</f>
         <v>84.96</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
         <v>4000</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B58" s="30">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C64" s="81">
+      <c r="C58" s="71">
         <f>9.76/0.9994</f>
         <v>9.7658595157094261</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D58" s="35">
         <f t="shared" si="1"/>
         <v>30.104877049180324</v>
       </c>
-      <c r="E64" s="41">
-        <f>(57*10^-6)*A64*360</f>
+      <c r="E58" s="38">
+        <f>(57*10^-6)*A58*360</f>
         <v>82.08</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
         <v>8000</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B59" s="30">
         <v>0.58399999999999996</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C59" s="32">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D59" s="35">
         <f t="shared" si="1"/>
         <v>59.556081632653047</v>
       </c>
-      <c r="E65" s="41">
-        <f>(28.8*10^-6)*A65*360</f>
+      <c r="E59" s="38">
+        <f>(28.8*10^-6)*A59*360</f>
         <v>82.944000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
         <v>10000</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B60" s="30">
         <v>0.72</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C60" s="32">
         <f>9.8/0.9994</f>
         <v>9.8058835301180718</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D60" s="35">
         <f t="shared" si="1"/>
         <v>73.425306122448973</v>
       </c>
-      <c r="E66" s="41">
-        <f>(22.4*10^-6)*A66*360</f>
+      <c r="E60" s="38">
+        <f>(22.4*10^-6)*A60*360</f>
         <v>80.639999999999986</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
         <v>20000</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B61" s="30">
         <v>1.4</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C61" s="32">
         <f>9.4/0.9994</f>
         <v>9.4056433860316204</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D61" s="35">
         <f t="shared" si="1"/>
         <v>148.84680851063828</v>
       </c>
-      <c r="E67" s="41">
-        <f>(10.8*10^-6)*A67*360</f>
+      <c r="E61" s="38">
+        <f>(10.8*10^-6)*A61*360</f>
         <v>77.760000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="31">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
         <v>40000</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B62" s="30">
         <v>2.56</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C62" s="32">
         <f>9/0.9994</f>
         <v>9.0054032419451673</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D62" s="35">
         <f t="shared" si="1"/>
         <v>284.27377777777775</v>
       </c>
-      <c r="E68" s="41">
-        <f>(5.3*10^-6)*A68*360</f>
+      <c r="E62" s="38">
+        <f>(5.3*10^-6)*A62*360</f>
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
         <v>80000</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B63" s="30">
         <v>3.76</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C63" s="32">
         <f>7.4/0.9994</f>
         <v>7.40444266559936</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D63" s="35">
         <f t="shared" si="1"/>
         <v>507.80324324324317</v>
       </c>
-      <c r="E69" s="41">
-        <f>(2.08*10^-6)*A69*360</f>
+      <c r="E63" s="38">
+        <f>(2.08*10^-6)*A63*360</f>
         <v>59.903999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
         <v>100000</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B64" s="30">
         <v>4</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C64" s="32">
         <f>7/0.9994</f>
         <v>7.0042025215129078</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D64" s="35">
         <f t="shared" si="1"/>
         <v>571.08571428571429</v>
       </c>
-      <c r="E70" s="41">
-        <f>(1.48*10^-6)*A70*360</f>
+      <c r="E64" s="38">
+        <f>(1.48*10^-6)*A64*360</f>
         <v>53.279999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="31">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
         <v>200000</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B65" s="30">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C65" s="32">
         <f>5.6/0.9994</f>
         <v>5.6033620172103262</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D65" s="35">
         <f t="shared" si="1"/>
         <v>828.07428571428557</v>
       </c>
-      <c r="E71" s="41">
-        <f>(480*10^-9)*A71*360</f>
+      <c r="E65" s="38">
+        <f>(480*10^-9)*A65*360</f>
         <v>34.56</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="55">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="50">
         <v>500000</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B66" s="51">
         <v>4.8</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C66" s="52">
         <f>5/0.9994</f>
         <v>5.0030018010806483</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D66" s="35">
         <f t="shared" si="1"/>
         <v>959.42400000000009</v>
       </c>
-      <c r="E72" s="41">
-        <f>(56*10^-9)*A72*360</f>
+      <c r="E66" s="38">
+        <f>(56*10^-9)*A66*360</f>
         <v>10.080000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="58">
+    <row r="67" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="53">
         <v>750000</v>
       </c>
-      <c r="B73" s="59">
+      <c r="B67" s="54">
         <v>4.76</v>
       </c>
-      <c r="C73" s="60">
+      <c r="C67" s="55">
         <f>4.96/0.9994</f>
         <v>4.9629777866720035</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D67" s="33">
         <f t="shared" si="1"/>
         <v>959.1016129032256</v>
       </c>
-      <c r="E73" s="41">
-        <f>(12*10^-9)*A73*360</f>
+      <c r="E67" s="194">
+        <f>(12*10^-9)*A67*360</f>
         <v>3.24</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+    <row r="68" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="175" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="192" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="176"/>
-      <c r="C75" s="176"/>
-      <c r="D75" s="176"/>
-      <c r="E75" s="177"/>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="189"/>
-      <c r="B76" s="190"/>
-      <c r="C76" s="190"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="191"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="91"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="74"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="76"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="77"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="79"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="77"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="79"/>
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="77"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="79"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="77"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="79"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="77"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="79"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="77"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="79"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="192"/>
-      <c r="B77" s="193"/>
-      <c r="C77" s="193"/>
-      <c r="D77" s="193"/>
-      <c r="E77" s="194"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="79"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="192"/>
-      <c r="B78" s="193"/>
-      <c r="C78" s="193"/>
-      <c r="D78" s="193"/>
-      <c r="E78" s="194"/>
-    </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="192"/>
-      <c r="B79" s="193"/>
-      <c r="C79" s="193"/>
-      <c r="D79" s="193"/>
-      <c r="E79" s="194"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="79"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="77"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="192"/>
-      <c r="B80" s="193"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="193"/>
-      <c r="E80" s="194"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="79"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="192"/>
-      <c r="B81" s="193"/>
-      <c r="C81" s="193"/>
-      <c r="D81" s="193"/>
-      <c r="E81" s="194"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="192"/>
-      <c r="B82" s="193"/>
-      <c r="C82" s="193"/>
-      <c r="D82" s="193"/>
-      <c r="E82" s="194"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="79"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="192"/>
-      <c r="B83" s="193"/>
-      <c r="C83" s="193"/>
-      <c r="D83" s="193"/>
-      <c r="E83" s="194"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="79"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="192"/>
-      <c r="B84" s="193"/>
-      <c r="C84" s="193"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="194"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="79"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="192"/>
-      <c r="B85" s="193"/>
-      <c r="C85" s="193"/>
-      <c r="D85" s="193"/>
-      <c r="E85" s="194"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="79"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="192"/>
-      <c r="B86" s="193"/>
-      <c r="C86" s="193"/>
-      <c r="D86" s="193"/>
-      <c r="E86" s="194"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="79"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="192"/>
-      <c r="B87" s="193"/>
-      <c r="C87" s="193"/>
-      <c r="D87" s="193"/>
-      <c r="E87" s="194"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="79"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="192"/>
-      <c r="B88" s="193"/>
-      <c r="C88" s="193"/>
-      <c r="D88" s="193"/>
-      <c r="E88" s="194"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="79"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="192"/>
-      <c r="B89" s="193"/>
-      <c r="C89" s="193"/>
-      <c r="D89" s="193"/>
-      <c r="E89" s="194"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="79"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="192"/>
-      <c r="B90" s="193"/>
-      <c r="C90" s="193"/>
-      <c r="D90" s="193"/>
-      <c r="E90" s="194"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="79"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="192"/>
-      <c r="B91" s="193"/>
-      <c r="C91" s="193"/>
-      <c r="D91" s="193"/>
-      <c r="E91" s="194"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="79"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="192"/>
-      <c r="B92" s="193"/>
-      <c r="C92" s="193"/>
-      <c r="D92" s="193"/>
-      <c r="E92" s="194"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="79"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="192"/>
-      <c r="B93" s="193"/>
-      <c r="C93" s="193"/>
-      <c r="D93" s="193"/>
-      <c r="E93" s="194"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="79"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="192"/>
-      <c r="B94" s="193"/>
-      <c r="C94" s="193"/>
-      <c r="D94" s="193"/>
-      <c r="E94" s="194"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="79"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="192"/>
-      <c r="B95" s="193"/>
-      <c r="C95" s="193"/>
-      <c r="D95" s="193"/>
-      <c r="E95" s="194"/>
+      <c r="A95" s="77"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="79"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="192"/>
-      <c r="B96" s="193"/>
-      <c r="C96" s="193"/>
-      <c r="D96" s="193"/>
-      <c r="E96" s="194"/>
+      <c r="A96" s="77"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="79"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="192"/>
-      <c r="B97" s="193"/>
-      <c r="C97" s="193"/>
-      <c r="D97" s="193"/>
-      <c r="E97" s="194"/>
+      <c r="A97" s="77"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="79"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="192"/>
-      <c r="B98" s="193"/>
-      <c r="C98" s="193"/>
-      <c r="D98" s="193"/>
-      <c r="E98" s="194"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="79"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="192"/>
-      <c r="B99" s="193"/>
-      <c r="C99" s="193"/>
-      <c r="D99" s="193"/>
-      <c r="E99" s="194"/>
+      <c r="A99" s="77"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="79"/>
+      <c r="F99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="192"/>
-      <c r="B100" s="193"/>
-      <c r="C100" s="193"/>
-      <c r="D100" s="193"/>
-      <c r="E100" s="194"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="79"/>
+      <c r="F100"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="192"/>
-      <c r="B101" s="193"/>
-      <c r="C101" s="193"/>
-      <c r="D101" s="193"/>
-      <c r="E101" s="194"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="79"/>
+      <c r="F101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="192"/>
-      <c r="B102" s="193"/>
-      <c r="C102" s="193"/>
-      <c r="D102" s="193"/>
-      <c r="E102" s="194"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="79"/>
+      <c r="F102"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
-      <c r="B103" s="193"/>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="194"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="79"/>
+      <c r="F103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="192"/>
-      <c r="B104" s="193"/>
-      <c r="C104" s="193"/>
-      <c r="D104" s="193"/>
-      <c r="E104" s="194"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="79"/>
+      <c r="F104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="192"/>
-      <c r="B105" s="193"/>
-      <c r="C105" s="193"/>
-      <c r="D105" s="193"/>
-      <c r="E105" s="194"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="79"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="195"/>
-      <c r="B106" s="196"/>
-      <c r="C106" s="196"/>
-      <c r="D106" s="196"/>
-      <c r="E106" s="197"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="77"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="79"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="25" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="77"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="79"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="77"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="79"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="77"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="79"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="80"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="81"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="82"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="175" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="176"/>
-      <c r="C108" s="176"/>
-      <c r="D108" s="176"/>
-      <c r="E108" s="177"/>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="s">
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="91"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="47"/>
-      <c r="C109" s="129" t="s">
+      <c r="B113" s="44"/>
+      <c r="C113" s="179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="180"/>
+      <c r="E113" s="181"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="45"/>
+      <c r="C114" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="130"/>
-      <c r="E109" s="131"/>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="48"/>
-      <c r="C110" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="133"/>
-      <c r="E110" s="134"/>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="46" t="s">
+      <c r="D114" s="183"/>
+      <c r="E114" s="184"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="49"/>
-      <c r="C111" s="135" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="186"/>
+      <c r="E115" s="187"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="156"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="156"/>
+      <c r="E116" s="157"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="158"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="159"/>
+      <c r="D117" s="159"/>
+      <c r="E117" s="160"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="161"/>
+      <c r="B118" s="162"/>
+      <c r="C118" s="162"/>
+      <c r="D118" s="162"/>
+      <c r="E118" s="163"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="91"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="137"/>
+      <c r="B120" s="138"/>
+      <c r="C120" s="138"/>
+      <c r="D120" s="138"/>
+      <c r="E120" s="139"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="140"/>
+      <c r="B121" s="141"/>
+      <c r="C121" s="141"/>
+      <c r="D121" s="141"/>
+      <c r="E121" s="142"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="143"/>
+      <c r="B122" s="144"/>
+      <c r="C122" s="144"/>
+      <c r="D122" s="144"/>
+      <c r="E122" s="145"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="91"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="147"/>
+      <c r="C124" s="147"/>
+      <c r="D124" s="147"/>
+      <c r="E124" s="148"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="149"/>
+      <c r="B125" s="150"/>
+      <c r="C125" s="150"/>
+      <c r="D125" s="150"/>
+      <c r="E125" s="151"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="149"/>
+      <c r="B126" s="150"/>
+      <c r="C126" s="150"/>
+      <c r="D126" s="150"/>
+      <c r="E126" s="151"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="152"/>
+      <c r="B127" s="153"/>
+      <c r="C127" s="153"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="154"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="91"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="164"/>
+      <c r="B129" s="165"/>
+      <c r="C129" s="165"/>
+      <c r="D129" s="165"/>
+      <c r="E129" s="166"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="167"/>
+      <c r="B130" s="168"/>
+      <c r="C130" s="168"/>
+      <c r="D130" s="168"/>
+      <c r="E130" s="169"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="167"/>
+      <c r="B131" s="168"/>
+      <c r="C131" s="168"/>
+      <c r="D131" s="168"/>
+      <c r="E131" s="169"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="167"/>
+      <c r="B132" s="168"/>
+      <c r="C132" s="168"/>
+      <c r="D132" s="168"/>
+      <c r="E132" s="169"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="167"/>
+      <c r="B133" s="168"/>
+      <c r="C133" s="168"/>
+      <c r="D133" s="168"/>
+      <c r="E133" s="169"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="170"/>
+      <c r="B134" s="171"/>
+      <c r="C134" s="171"/>
+      <c r="D134" s="171"/>
+      <c r="E134" s="172"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="84"/>
+      <c r="C135" s="84"/>
+      <c r="D135" s="84"/>
+      <c r="E135" s="85"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="15"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D111" s="136"/>
-      <c r="E111" s="137"/>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="105" t="s">
+      <c r="B137" s="93"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="94"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="92"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="93"/>
+      <c r="E138" s="94"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="92"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="94"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="92"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="94"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="15"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="107"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="110"/>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="111"/>
-      <c r="B114" s="112"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="113"/>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="176"/>
-      <c r="C115" s="176"/>
-      <c r="D115" s="176"/>
-      <c r="E115" s="177"/>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="88"/>
-      <c r="E116" s="89"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="92"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="93"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="94"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="95"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="176"/>
-      <c r="C119" s="176"/>
-      <c r="D119" s="176"/>
-      <c r="E119" s="177"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="97"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="98"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="99"/>
-      <c r="B121" s="100"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="101"/>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
-      <c r="B122" s="100"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="101"/>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="102"/>
-      <c r="B123" s="103"/>
-      <c r="C123" s="103"/>
-      <c r="D123" s="103"/>
-      <c r="E123" s="104"/>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="175" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="176"/>
-      <c r="C124" s="176"/>
-      <c r="D124" s="176"/>
-      <c r="E124" s="177"/>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="114"/>
-      <c r="B125" s="115"/>
-      <c r="C125" s="115"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="116"/>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="117"/>
-      <c r="B126" s="118"/>
-      <c r="C126" s="118"/>
-      <c r="D126" s="118"/>
-      <c r="E126" s="119"/>
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="117"/>
-      <c r="B127" s="118"/>
-      <c r="C127" s="118"/>
-      <c r="D127" s="118"/>
-      <c r="E127" s="119"/>
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="117"/>
-      <c r="B128" s="118"/>
-      <c r="C128" s="118"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="119"/>
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="117"/>
-      <c r="B129" s="118"/>
-      <c r="C129" s="118"/>
-      <c r="D129" s="118"/>
-      <c r="E129" s="119"/>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="120"/>
-      <c r="B130" s="121"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="122"/>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" s="170"/>
-      <c r="C131" s="170"/>
-      <c r="D131" s="170"/>
-      <c r="E131" s="171"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="17"/>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="178" t="s">
-        <v>57</v>
-      </c>
-      <c r="B133" s="179"/>
-      <c r="C133" s="179"/>
-      <c r="D133" s="179"/>
-      <c r="E133" s="180"/>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="178"/>
-      <c r="B134" s="179"/>
-      <c r="C134" s="179"/>
-      <c r="D134" s="179"/>
-      <c r="E134" s="180"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="178"/>
-      <c r="B135" s="179"/>
-      <c r="C135" s="179"/>
-      <c r="D135" s="179"/>
-      <c r="E135" s="180"/>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="178"/>
-      <c r="B136" s="179"/>
-      <c r="C136" s="179"/>
-      <c r="D136" s="179"/>
-      <c r="E136" s="180"/>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="17"/>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="183" t="s">
+      <c r="B142" s="96"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="97"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="95"/>
+      <c r="B143" s="96"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="97"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="95"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="97"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="95"/>
+      <c r="B145" s="96"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="97"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="98"/>
+      <c r="B146" s="99"/>
+      <c r="C146" s="99"/>
+      <c r="D146" s="99"/>
+      <c r="E146" s="100"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="84"/>
+      <c r="C147" s="84"/>
+      <c r="D147" s="84"/>
+      <c r="E147" s="85"/>
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="87"/>
+      <c r="C148" s="87"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="88"/>
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="203"/>
+      <c r="B149" s="204"/>
+      <c r="C149" s="204"/>
+      <c r="D149" s="204"/>
+      <c r="E149" s="205"/>
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="167"/>
+      <c r="B150" s="168"/>
+      <c r="C150" s="168"/>
+      <c r="D150" s="168"/>
+      <c r="E150" s="169"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="167"/>
+      <c r="B151" s="168"/>
+      <c r="C151" s="168"/>
+      <c r="D151" s="168"/>
+      <c r="E151" s="169"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="167"/>
+      <c r="B152" s="168"/>
+      <c r="C152" s="168"/>
+      <c r="D152" s="168"/>
+      <c r="E152" s="169"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="167"/>
+      <c r="B153" s="168"/>
+      <c r="C153" s="168"/>
+      <c r="D153" s="168"/>
+      <c r="E153" s="169"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="167"/>
+      <c r="B154" s="168"/>
+      <c r="C154" s="168"/>
+      <c r="D154" s="168"/>
+      <c r="E154" s="169"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="167"/>
+      <c r="B155" s="168"/>
+      <c r="C155" s="168"/>
+      <c r="D155" s="168"/>
+      <c r="E155" s="169"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="167"/>
+      <c r="B156" s="168"/>
+      <c r="C156" s="168"/>
+      <c r="D156" s="168"/>
+      <c r="E156" s="169"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="167"/>
+      <c r="B157" s="168"/>
+      <c r="C157" s="168"/>
+      <c r="D157" s="168"/>
+      <c r="E157" s="169"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="167"/>
+      <c r="B158" s="168"/>
+      <c r="C158" s="168"/>
+      <c r="D158" s="168"/>
+      <c r="E158" s="169"/>
+    </row>
+    <row r="159" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="170"/>
+      <c r="B159" s="171"/>
+      <c r="C159" s="171"/>
+      <c r="D159" s="171"/>
+      <c r="E159" s="172"/>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="20"/>
+      <c r="B161" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="135"/>
+      <c r="D161" s="135"/>
+      <c r="E161" s="136"/>
+    </row>
+    <row r="162" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="21"/>
+      <c r="B162" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="B138" s="184"/>
-      <c r="C138" s="184"/>
-      <c r="D138" s="184"/>
-      <c r="E138" s="185"/>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="183"/>
-      <c r="B139" s="184"/>
-      <c r="C139" s="184"/>
-      <c r="D139" s="184"/>
-      <c r="E139" s="185"/>
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="183"/>
-      <c r="B140" s="184"/>
-      <c r="C140" s="184"/>
-      <c r="D140" s="184"/>
-      <c r="E140" s="185"/>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="183"/>
-      <c r="B141" s="184"/>
-      <c r="C141" s="184"/>
-      <c r="D141" s="184"/>
-      <c r="E141" s="185"/>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="186"/>
-      <c r="B142" s="187"/>
-      <c r="C142" s="187"/>
-      <c r="D142" s="187"/>
-      <c r="E142" s="188"/>
-      <c r="F142"/>
-    </row>
-    <row r="143" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B143" s="170"/>
-      <c r="C143" s="170"/>
-      <c r="D143" s="170"/>
-      <c r="E143" s="171"/>
-      <c r="F143"/>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="172" t="s">
-        <v>29</v>
-      </c>
-      <c r="B144" s="173"/>
-      <c r="C144" s="173"/>
-      <c r="D144" s="173"/>
-      <c r="E144" s="174"/>
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="65"/>
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="17"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="17"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="17"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="18"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C162" s="174"/>
+      <c r="D162" s="174"/>
+      <c r="E162" s="175"/>
+    </row>
+    <row r="163" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="21"/>
+      <c r="B163" s="176" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="177"/>
+      <c r="D163" s="177"/>
+      <c r="E163" s="178"/>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="21"/>
+      <c r="B164" s="195" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="196"/>
+      <c r="D164" s="196"/>
+      <c r="E164" s="197"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="21"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="21"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="21"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="21"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="15"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="21"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="15"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="21"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="21"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="21"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="21"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="21"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="15"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="21"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="15"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="21"/>
+      <c r="B176" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="198"/>
+      <c r="D176" s="198"/>
+      <c r="E176" s="199"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="21"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="15"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="21"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="63"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="21"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="63"/>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="21"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="21"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="21"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="21"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="63"/>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="21"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="21"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="21"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="64"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="188"/>
+      <c r="B187" s="189"/>
+      <c r="C187" s="190"/>
+      <c r="D187" s="190"/>
+      <c r="E187" s="191"/>
+    </row>
+    <row r="188" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B188" s="90"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="90"/>
+      <c r="E188" s="91"/>
+    </row>
+    <row r="189" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="137"/>
+      <c r="B189" s="138"/>
+      <c r="C189" s="138"/>
+      <c r="D189" s="138"/>
+      <c r="E189" s="139"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="140"/>
+      <c r="B190" s="141"/>
+      <c r="C190" s="141"/>
+      <c r="D190" s="141"/>
+      <c r="E190" s="142"/>
+    </row>
+    <row r="191" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="143"/>
+      <c r="B191" s="144"/>
+      <c r="C191" s="144"/>
+      <c r="D191" s="144"/>
+      <c r="E191" s="145"/>
+    </row>
+    <row r="192" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A133:E136"/>
-    <mergeCell ref="A138:E142"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A124:E124"/>
+  <mergeCells count="44">
+    <mergeCell ref="A149:E159"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A189:E191"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A120:E122"/>
+    <mergeCell ref="A124:E127"/>
+    <mergeCell ref="A116:E118"/>
+    <mergeCell ref="A129:E134"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B2:C2"/>
@@ -8127,24 +11493,25 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A116:E118"/>
-    <mergeCell ref="A120:E123"/>
-    <mergeCell ref="A112:E114"/>
-    <mergeCell ref="A125:E130"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A137:E140"/>
+    <mergeCell ref="A142:E146"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A128:E128"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0.14000000000000001" top="0.4" bottom="0.11" header="0.23333333333333334" footer="0.5"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="49" max="16383" man="1"/>
-    <brk id="73" max="16383" man="1"/>
-    <brk id="106" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
+    <brk id="67" max="16383" man="1"/>
+    <brk id="110" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <extLst>
